--- a/myapp/files/80_distances/distances.xlsx
+++ b/myapp/files/80_distances/distances.xlsx
@@ -810,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3974</v>
+        <v>0.3971</v>
       </c>
     </row>
     <row r="11">
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0216</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="21">
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0108</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0741</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="29">
@@ -1133,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0438</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1831</v>
+        <v>0.1828</v>
       </c>
     </row>
     <row r="35">
@@ -1286,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1906</v>
+        <v>0.1903</v>
       </c>
     </row>
     <row r="39">
@@ -1303,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1698</v>
+        <v>0.1699</v>
       </c>
     </row>
     <row r="40">
@@ -1354,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5307</v>
+        <v>0.5304</v>
       </c>
     </row>
     <row r="43">
@@ -1524,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2306</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="53">
@@ -1541,7 +1541,7 @@
         <v>13</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2988</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="54">
@@ -1694,7 +1694,7 @@
         <v>13</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0333</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="63">
@@ -1932,7 +1932,7 @@
         <v>13</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1954</v>
+        <v>0.1953</v>
       </c>
     </row>
     <row r="77">
@@ -1949,7 +1949,7 @@
         <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2016</v>
+        <v>0.2018</v>
       </c>
     </row>
     <row r="78">
@@ -2000,7 +2000,7 @@
         <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>0.167</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="81">
@@ -2017,7 +2017,7 @@
         <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1697</v>
+        <v>0.1699</v>
       </c>
     </row>
     <row r="82">
@@ -2068,7 +2068,7 @@
         <v>14</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5797</v>
+        <v>0.5795</v>
       </c>
     </row>
     <row r="85">
@@ -2085,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5048</v>
+        <v>0.5046</v>
       </c>
     </row>
     <row r="86">
@@ -2238,7 +2238,7 @@
         <v>13</v>
       </c>
       <c r="E94" t="n">
-        <v>0.257</v>
+        <v>0.2569</v>
       </c>
     </row>
     <row r="95">
@@ -2544,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0832</v>
+        <v>0.0831</v>
       </c>
     </row>
     <row r="113">
@@ -2561,7 +2561,7 @@
         <v>13</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0946</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="114">
@@ -2646,7 +2646,7 @@
         <v>13</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1848</v>
+        <v>0.1847</v>
       </c>
     </row>
     <row r="119">
@@ -2663,7 +2663,7 @@
         <v>13</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2436</v>
+        <v>0.2435</v>
       </c>
     </row>
     <row r="120">
@@ -2731,7 +2731,7 @@
         <v>13</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2117</v>
+        <v>0.2116</v>
       </c>
     </row>
     <row r="124">
@@ -2782,7 +2782,7 @@
         <v>14</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5731</v>
+        <v>0.5732</v>
       </c>
     </row>
     <row r="127">
@@ -2799,7 +2799,7 @@
         <v>14</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7419</v>
+        <v>0.7421</v>
       </c>
     </row>
     <row r="128">
@@ -2952,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2601</v>
+        <v>0.2602</v>
       </c>
     </row>
     <row r="137">
@@ -2969,7 +2969,7 @@
         <v>13</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3575</v>
+        <v>0.3573</v>
       </c>
     </row>
     <row r="138">
@@ -3122,7 +3122,7 @@
         <v>13</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0252</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="147">
@@ -3258,7 +3258,7 @@
         <v>13</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0887</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="155">
@@ -3360,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1887</v>
+        <v>0.1888</v>
       </c>
     </row>
     <row r="161">
@@ -3377,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1761</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="162">
@@ -3428,7 +3428,7 @@
         <v>13</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1963</v>
+        <v>0.1964</v>
       </c>
     </row>
     <row r="165">
@@ -3445,7 +3445,7 @@
         <v>13</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1454</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="166">
@@ -3496,7 +3496,7 @@
         <v>14</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5821</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="169">
@@ -3513,7 +3513,7 @@
         <v>14</v>
       </c>
       <c r="E169" t="n">
-        <v>0.605</v>
+        <v>0.6048</v>
       </c>
     </row>
     <row r="170">
@@ -3666,7 +3666,7 @@
         <v>13</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3508</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="179">
@@ -3683,7 +3683,7 @@
         <v>13</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4087</v>
+        <v>0.4089</v>
       </c>
     </row>
     <row r="180">
@@ -3836,7 +3836,7 @@
         <v>13</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0366</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="189">
@@ -3853,7 +3853,7 @@
         <v>13</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0142</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="190">
@@ -3972,7 +3972,7 @@
         <v>13</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0964</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="197">
@@ -4074,7 +4074,7 @@
         <v>13</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2069</v>
+        <v>0.2071</v>
       </c>
     </row>
     <row r="203">
@@ -4091,7 +4091,7 @@
         <v>13</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1641</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="204">
@@ -4142,7 +4142,7 @@
         <v>13</v>
       </c>
       <c r="E206" t="n">
-        <v>0.1402</v>
+        <v>0.1405</v>
       </c>
     </row>
     <row r="207">
@@ -4210,7 +4210,7 @@
         <v>14</v>
       </c>
       <c r="E210" t="n">
-        <v>0.6829</v>
+        <v>0.6832</v>
       </c>
     </row>
     <row r="211">
@@ -4227,7 +4227,7 @@
         <v>14</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5065</v>
+        <v>0.5069</v>
       </c>
     </row>
     <row r="212">
@@ -4380,7 +4380,7 @@
         <v>13</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2978</v>
+        <v>0.2979</v>
       </c>
     </row>
     <row r="221">
@@ -4550,7 +4550,7 @@
         <v>13</v>
       </c>
       <c r="E230" t="n">
-        <v>0.01</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="231">
@@ -4567,7 +4567,7 @@
         <v>13</v>
       </c>
       <c r="E231" t="n">
-        <v>0.023</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="232">
@@ -4686,7 +4686,7 @@
         <v>13</v>
       </c>
       <c r="E238" t="n">
-        <v>0.1061</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="239">
@@ -4703,7 +4703,7 @@
         <v>13</v>
       </c>
       <c r="E239" t="n">
-        <v>0.0673</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="240">
@@ -4788,7 +4788,7 @@
         <v>13</v>
       </c>
       <c r="E244" t="n">
-        <v>0.2054</v>
+        <v>0.2055</v>
       </c>
     </row>
     <row r="245">
@@ -4856,7 +4856,7 @@
         <v>13</v>
       </c>
       <c r="E248" t="n">
-        <v>0.1732</v>
+        <v>0.1733</v>
       </c>
     </row>
     <row r="249">
@@ -4924,7 +4924,7 @@
         <v>14</v>
       </c>
       <c r="E252" t="n">
-        <v>0.5747</v>
+        <v>0.5748</v>
       </c>
     </row>
     <row r="253">
@@ -4941,7 +4941,7 @@
         <v>14</v>
       </c>
       <c r="E253" t="n">
-        <v>0.5119</v>
+        <v>0.5118</v>
       </c>
     </row>
     <row r="254">
@@ -5094,7 +5094,7 @@
         <v>13</v>
       </c>
       <c r="E262" t="n">
-        <v>0.2261</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="263">
@@ -5111,7 +5111,7 @@
         <v>13</v>
       </c>
       <c r="E263" t="n">
-        <v>0.365</v>
+        <v>0.3648</v>
       </c>
     </row>
     <row r="264">
@@ -5264,7 +5264,7 @@
         <v>13</v>
       </c>
       <c r="E272" t="n">
-        <v>0.071</v>
+        <v>0.0712</v>
       </c>
     </row>
     <row r="273">
@@ -5281,7 +5281,7 @@
         <v>13</v>
       </c>
       <c r="E273" t="n">
-        <v>0.0608</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="274">
@@ -5519,7 +5519,7 @@
         <v>13</v>
       </c>
       <c r="E287" t="n">
-        <v>0.2986</v>
+        <v>0.2987</v>
       </c>
     </row>
     <row r="288">
@@ -5570,7 +5570,7 @@
         <v>13</v>
       </c>
       <c r="E290" t="n">
-        <v>0.2735</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="291">
@@ -5587,7 +5587,7 @@
         <v>13</v>
       </c>
       <c r="E291" t="n">
-        <v>0.1874</v>
+        <v>0.1876</v>
       </c>
     </row>
     <row r="292">
@@ -5638,7 +5638,7 @@
         <v>14</v>
       </c>
       <c r="E294" t="n">
-        <v>0.5808</v>
+        <v>0.5809</v>
       </c>
     </row>
     <row r="295">
@@ -5655,7 +5655,7 @@
         <v>14</v>
       </c>
       <c r="E295" t="n">
-        <v>0.6403</v>
+        <v>0.6402</v>
       </c>
     </row>
     <row r="296">
@@ -5808,7 +5808,7 @@
         <v>13</v>
       </c>
       <c r="E304" t="n">
-        <v>0.283</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="305">
@@ -5825,7 +5825,7 @@
         <v>13</v>
       </c>
       <c r="E305" t="n">
-        <v>0.3152</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="306">
@@ -5978,7 +5978,7 @@
         <v>13</v>
       </c>
       <c r="E314" t="n">
-        <v>0.0296</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="315">
@@ -5995,7 +5995,7 @@
         <v>13</v>
       </c>
       <c r="E315" t="n">
-        <v>0.0066</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="316">
@@ -6114,7 +6114,7 @@
         <v>13</v>
       </c>
       <c r="E322" t="n">
-        <v>0.0819</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="323">
@@ -6131,7 +6131,7 @@
         <v>13</v>
       </c>
       <c r="E323" t="n">
-        <v>0.0751</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="324">
@@ -6216,7 +6216,7 @@
         <v>13</v>
       </c>
       <c r="E328" t="n">
-        <v>0.1677</v>
+        <v>0.1671</v>
       </c>
     </row>
     <row r="329">
@@ -6233,7 +6233,7 @@
         <v>13</v>
       </c>
       <c r="E329" t="n">
-        <v>0.194</v>
+        <v>0.1941</v>
       </c>
     </row>
     <row r="330">
@@ -6352,7 +6352,7 @@
         <v>14</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5253</v>
+        <v>0.5256</v>
       </c>
     </row>
     <row r="337">
@@ -6369,7 +6369,7 @@
         <v>14</v>
       </c>
       <c r="E337" t="n">
-        <v>0.625</v>
+        <v>0.6247</v>
       </c>
     </row>
     <row r="338">
@@ -6522,7 +6522,7 @@
         <v>13</v>
       </c>
       <c r="E346" t="n">
-        <v>0.1898</v>
+        <v>0.1899</v>
       </c>
     </row>
     <row r="347">
@@ -6692,7 +6692,7 @@
         <v>13</v>
       </c>
       <c r="E356" t="n">
-        <v>0.053</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="357">
@@ -6709,7 +6709,7 @@
         <v>13</v>
       </c>
       <c r="E357" t="n">
-        <v>0.0148</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="358">
@@ -6930,7 +6930,7 @@
         <v>13</v>
       </c>
       <c r="E370" t="n">
-        <v>0.2173</v>
+        <v>0.2172</v>
       </c>
     </row>
     <row r="371">
@@ -6947,7 +6947,7 @@
         <v>13</v>
       </c>
       <c r="E371" t="n">
-        <v>0.2033</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="372">
@@ -7015,7 +7015,7 @@
         <v>13</v>
       </c>
       <c r="E375" t="n">
-        <v>0.1843</v>
+        <v>0.1844</v>
       </c>
     </row>
     <row r="376">
@@ -7066,7 +7066,7 @@
         <v>14</v>
       </c>
       <c r="E378" t="n">
-        <v>0.679</v>
+        <v>0.6791</v>
       </c>
     </row>
     <row r="379">
@@ -7236,7 +7236,7 @@
         <v>13</v>
       </c>
       <c r="E388" t="n">
-        <v>0.3251</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="389">
@@ -7406,7 +7406,7 @@
         <v>13</v>
       </c>
       <c r="E398" t="n">
-        <v>0.0354</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="399">
@@ -7559,7 +7559,7 @@
         <v>13</v>
       </c>
       <c r="E407" t="n">
-        <v>0.1145</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="408">
@@ -7644,7 +7644,7 @@
         <v>13</v>
       </c>
       <c r="E412" t="n">
-        <v>0.1919</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="413">
@@ -7661,7 +7661,7 @@
         <v>13</v>
       </c>
       <c r="E413" t="n">
-        <v>0.2916</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="414">
@@ -7712,7 +7712,7 @@
         <v>13</v>
       </c>
       <c r="E416" t="n">
-        <v>0.1579</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="417">
@@ -7729,7 +7729,7 @@
         <v>13</v>
       </c>
       <c r="E417" t="n">
-        <v>0.177</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="418">
@@ -7780,7 +7780,7 @@
         <v>14</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5482</v>
+        <v>0.5481</v>
       </c>
     </row>
     <row r="421">
@@ -7797,7 +7797,7 @@
         <v>14</v>
       </c>
       <c r="E421" t="n">
-        <v>0.6608</v>
+        <v>0.6607</v>
       </c>
     </row>
     <row r="422">
@@ -7950,7 +7950,7 @@
         <v>13</v>
       </c>
       <c r="E430" t="n">
-        <v>0.192</v>
+        <v>0.1922</v>
       </c>
     </row>
     <row r="431">
@@ -7967,7 +7967,7 @@
         <v>13</v>
       </c>
       <c r="E431" t="n">
-        <v>0.3506</v>
+        <v>0.3507</v>
       </c>
     </row>
     <row r="432">
@@ -8120,7 +8120,7 @@
         <v>13</v>
       </c>
       <c r="E440" t="n">
-        <v>0.0324</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="441">
@@ -8256,7 +8256,7 @@
         <v>13</v>
       </c>
       <c r="E448" t="n">
-        <v>0.0688</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="449">
@@ -8358,7 +8358,7 @@
         <v>13</v>
       </c>
       <c r="E454" t="n">
-        <v>0.2157</v>
+        <v>0.2159</v>
       </c>
     </row>
     <row r="455">
@@ -8375,7 +8375,7 @@
         <v>13</v>
       </c>
       <c r="E455" t="n">
-        <v>0.1531</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="456">
@@ -8426,7 +8426,7 @@
         <v>13</v>
       </c>
       <c r="E458" t="n">
-        <v>0.1983</v>
+        <v>0.1982</v>
       </c>
     </row>
     <row r="459">
@@ -8494,7 +8494,7 @@
         <v>14</v>
       </c>
       <c r="E462" t="n">
-        <v>0.5721</v>
+        <v>0.5722</v>
       </c>
     </row>
     <row r="463">
@@ -8664,7 +8664,7 @@
         <v>13</v>
       </c>
       <c r="E472" t="n">
-        <v>0.2947</v>
+        <v>0.2943</v>
       </c>
     </row>
     <row r="473">
@@ -8681,7 +8681,7 @@
         <v>13</v>
       </c>
       <c r="E473" t="n">
-        <v>0.4035</v>
+        <v>0.4034</v>
       </c>
     </row>
     <row r="474">
@@ -8834,7 +8834,7 @@
         <v>13</v>
       </c>
       <c r="E482" t="n">
-        <v>0.0554</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="483">
@@ -8851,7 +8851,7 @@
         <v>13</v>
       </c>
       <c r="E483" t="n">
-        <v>0.0214</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="484">
@@ -8970,7 +8970,7 @@
         <v>13</v>
       </c>
       <c r="E490" t="n">
-        <v>0.0836</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="491">
@@ -8987,7 +8987,7 @@
         <v>13</v>
       </c>
       <c r="E491" t="n">
-        <v>0.0755</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="492">
@@ -9072,7 +9072,7 @@
         <v>13</v>
       </c>
       <c r="E496" t="n">
-        <v>0.2677</v>
+        <v>0.2679</v>
       </c>
     </row>
     <row r="497">
@@ -9089,7 +9089,7 @@
         <v>13</v>
       </c>
       <c r="E497" t="n">
-        <v>0.2326</v>
+        <v>0.2332</v>
       </c>
     </row>
     <row r="498">
@@ -9140,7 +9140,7 @@
         <v>13</v>
       </c>
       <c r="E500" t="n">
-        <v>0.2477</v>
+        <v>0.2473</v>
       </c>
     </row>
     <row r="501">
@@ -9157,7 +9157,7 @@
         <v>13</v>
       </c>
       <c r="E501" t="n">
-        <v>0.179</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="502">
@@ -9208,7 +9208,7 @@
         <v>14</v>
       </c>
       <c r="E504" t="n">
-        <v>0.6124</v>
+        <v>0.6128</v>
       </c>
     </row>
     <row r="505">
@@ -9225,7 +9225,7 @@
         <v>14</v>
       </c>
       <c r="E505" t="n">
-        <v>0.5539</v>
+        <v>0.5544</v>
       </c>
     </row>
     <row r="506">
@@ -9378,7 +9378,7 @@
         <v>13</v>
       </c>
       <c r="E514" t="n">
-        <v>0.2413</v>
+        <v>0.2414</v>
       </c>
     </row>
     <row r="515">
@@ -9395,7 +9395,7 @@
         <v>13</v>
       </c>
       <c r="E515" t="n">
-        <v>0.2672</v>
+        <v>0.2673</v>
       </c>
     </row>
     <row r="516">
@@ -9548,7 +9548,7 @@
         <v>13</v>
       </c>
       <c r="E524" t="n">
-        <v>0.0478</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="525">
@@ -9565,7 +9565,7 @@
         <v>13</v>
       </c>
       <c r="E525" t="n">
-        <v>0.0256</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="526">
@@ -9684,7 +9684,7 @@
         <v>13</v>
       </c>
       <c r="E532" t="n">
-        <v>0.1061</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="533">
@@ -9701,7 +9701,7 @@
         <v>13</v>
       </c>
       <c r="E533" t="n">
-        <v>0.0645</v>
+        <v>0.0642</v>
       </c>
     </row>
     <row r="534">
@@ -9803,7 +9803,7 @@
         <v>13</v>
       </c>
       <c r="E539" t="n">
-        <v>0.2776</v>
+        <v>0.2777</v>
       </c>
     </row>
     <row r="540">
@@ -9871,7 +9871,7 @@
         <v>13</v>
       </c>
       <c r="E543" t="n">
-        <v>0.2013</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="544">
@@ -9922,7 +9922,7 @@
         <v>14</v>
       </c>
       <c r="E546" t="n">
-        <v>0.5684</v>
+        <v>0.5685</v>
       </c>
     </row>
     <row r="547">
@@ -9939,7 +9939,7 @@
         <v>14</v>
       </c>
       <c r="E547" t="n">
-        <v>0.543</v>
+        <v>0.5432</v>
       </c>
     </row>
     <row r="548">
@@ -10092,7 +10092,7 @@
         <v>13</v>
       </c>
       <c r="E556" t="n">
-        <v>0.3208</v>
+        <v>0.3207</v>
       </c>
     </row>
     <row r="557">
@@ -10262,7 +10262,7 @@
         <v>13</v>
       </c>
       <c r="E566" t="n">
-        <v>0.0647</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="567">
@@ -10279,7 +10279,7 @@
         <v>13</v>
       </c>
       <c r="E567" t="n">
-        <v>0.0408</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="568">
@@ -10398,7 +10398,7 @@
         <v>13</v>
       </c>
       <c r="E574" t="n">
-        <v>0.093</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="575">
@@ -10500,7 +10500,7 @@
         <v>13</v>
       </c>
       <c r="E580" t="n">
-        <v>0.2285</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="581">
@@ -10585,7 +10585,7 @@
         <v>13</v>
       </c>
       <c r="E585" t="n">
-        <v>0.2353</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="586">
@@ -10806,7 +10806,7 @@
         <v>13</v>
       </c>
       <c r="E598" t="n">
-        <v>0.3452</v>
+        <v>0.3455</v>
       </c>
     </row>
     <row r="599">
@@ -10976,7 +10976,7 @@
         <v>13</v>
       </c>
       <c r="E608" t="n">
-        <v>0.0504</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="609">
@@ -11112,7 +11112,7 @@
         <v>13</v>
       </c>
       <c r="E616" t="n">
-        <v>0.0935</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="617">
@@ -11129,7 +11129,7 @@
         <v>13</v>
       </c>
       <c r="E617" t="n">
-        <v>0.0741</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="618">
@@ -11214,7 +11214,7 @@
         <v>13</v>
       </c>
       <c r="E622" t="n">
-        <v>0.1979</v>
+        <v>0.1976</v>
       </c>
     </row>
     <row r="623">
@@ -11231,7 +11231,7 @@
         <v>13</v>
       </c>
       <c r="E623" t="n">
-        <v>0.1946</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="624">
@@ -11282,7 +11282,7 @@
         <v>13</v>
       </c>
       <c r="E626" t="n">
-        <v>0.2018</v>
+        <v>0.2022</v>
       </c>
     </row>
     <row r="627">
@@ -11350,7 +11350,7 @@
         <v>14</v>
       </c>
       <c r="E630" t="n">
-        <v>0.5872</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="631">
@@ -11367,7 +11367,7 @@
         <v>14</v>
       </c>
       <c r="E631" t="n">
-        <v>0.5179</v>
+        <v>0.5182</v>
       </c>
     </row>
     <row r="632">
@@ -11520,7 +11520,7 @@
         <v>13</v>
       </c>
       <c r="E640" t="n">
-        <v>0.2797</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="641">
@@ -11537,7 +11537,7 @@
         <v>13</v>
       </c>
       <c r="E641" t="n">
-        <v>0.3224</v>
+        <v>0.3225</v>
       </c>
     </row>
     <row r="642">
@@ -11707,7 +11707,7 @@
         <v>13</v>
       </c>
       <c r="E651" t="n">
-        <v>0.0199</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="652">
@@ -11843,7 +11843,7 @@
         <v>13</v>
       </c>
       <c r="E659" t="n">
-        <v>0.0493</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="660">
@@ -11928,7 +11928,7 @@
         <v>13</v>
       </c>
       <c r="E664" t="n">
-        <v>0.2298</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="665">
@@ -11945,7 +11945,7 @@
         <v>13</v>
       </c>
       <c r="E665" t="n">
-        <v>0.1596</v>
+        <v>0.1595</v>
       </c>
     </row>
     <row r="666">
@@ -11996,7 +11996,7 @@
         <v>13</v>
       </c>
       <c r="E668" t="n">
-        <v>0.1684</v>
+        <v>0.1686</v>
       </c>
     </row>
     <row r="669">
@@ -12013,7 +12013,7 @@
         <v>13</v>
       </c>
       <c r="E669" t="n">
-        <v>0.1599</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="670">
@@ -12064,7 +12064,7 @@
         <v>14</v>
       </c>
       <c r="E672" t="n">
-        <v>0.6927</v>
+        <v>0.6928</v>
       </c>
     </row>
     <row r="673">
@@ -12081,7 +12081,7 @@
         <v>14</v>
       </c>
       <c r="E673" t="n">
-        <v>0.5311</v>
+        <v>0.5309</v>
       </c>
     </row>
     <row r="674">
@@ -12234,7 +12234,7 @@
         <v>13</v>
       </c>
       <c r="E682" t="n">
-        <v>0.2052</v>
+        <v>0.2049</v>
       </c>
     </row>
     <row r="683">
@@ -12251,7 +12251,7 @@
         <v>13</v>
       </c>
       <c r="E683" t="n">
-        <v>0.2624</v>
+        <v>0.2622</v>
       </c>
     </row>
     <row r="684">
@@ -12404,7 +12404,7 @@
         <v>13</v>
       </c>
       <c r="E692" t="n">
-        <v>0.0376</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="693">
@@ -12421,7 +12421,7 @@
         <v>13</v>
       </c>
       <c r="E693" t="n">
-        <v>0.0279</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="694">
@@ -12540,7 +12540,7 @@
         <v>13</v>
       </c>
       <c r="E700" t="n">
-        <v>0.077</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="701">
@@ -12557,7 +12557,7 @@
         <v>13</v>
       </c>
       <c r="E701" t="n">
-        <v>0.085</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="702">
@@ -12642,7 +12642,7 @@
         <v>13</v>
       </c>
       <c r="E706" t="n">
-        <v>0.2738</v>
+        <v>0.2735</v>
       </c>
     </row>
     <row r="707">
@@ -12659,7 +12659,7 @@
         <v>13</v>
       </c>
       <c r="E707" t="n">
-        <v>0.263</v>
+        <v>0.2629</v>
       </c>
     </row>
     <row r="708">
@@ -12710,7 +12710,7 @@
         <v>13</v>
       </c>
       <c r="E710" t="n">
-        <v>0.1837</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="711">
@@ -12727,7 +12727,7 @@
         <v>13</v>
       </c>
       <c r="E711" t="n">
-        <v>0.1837</v>
+        <v>0.1836</v>
       </c>
     </row>
     <row r="712">
@@ -12778,7 +12778,7 @@
         <v>14</v>
       </c>
       <c r="E714" t="n">
-        <v>0.7085</v>
+        <v>0.7081</v>
       </c>
     </row>
     <row r="715">
@@ -12795,7 +12795,7 @@
         <v>14</v>
       </c>
       <c r="E715" t="n">
-        <v>0.5172</v>
+        <v>0.5175</v>
       </c>
     </row>
     <row r="716">
@@ -12948,7 +12948,7 @@
         <v>13</v>
       </c>
       <c r="E724" t="n">
-        <v>0.2102</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="725">
@@ -12965,7 +12965,7 @@
         <v>13</v>
       </c>
       <c r="E725" t="n">
-        <v>0.4025</v>
+        <v>0.4026</v>
       </c>
     </row>
     <row r="726">
@@ -13118,7 +13118,7 @@
         <v>13</v>
       </c>
       <c r="E734" t="n">
-        <v>0.0177</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="735">
@@ -13135,7 +13135,7 @@
         <v>13</v>
       </c>
       <c r="E735" t="n">
-        <v>0.0472</v>
+        <v>0.0474</v>
       </c>
     </row>
     <row r="736">
@@ -13254,7 +13254,7 @@
         <v>13</v>
       </c>
       <c r="E742" t="n">
-        <v>0.0672</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="743">
@@ -13356,7 +13356,7 @@
         <v>13</v>
       </c>
       <c r="E748" t="n">
-        <v>0.1842</v>
+        <v>0.1839</v>
       </c>
     </row>
     <row r="749">
@@ -13373,7 +13373,7 @@
         <v>13</v>
       </c>
       <c r="E749" t="n">
-        <v>0.3221</v>
+        <v>0.3223</v>
       </c>
     </row>
     <row r="750">
@@ -13424,7 +13424,7 @@
         <v>13</v>
       </c>
       <c r="E752" t="n">
-        <v>0.1405</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="753">
@@ -13441,7 +13441,7 @@
         <v>13</v>
       </c>
       <c r="E753" t="n">
-        <v>0.2517</v>
+        <v>0.2519</v>
       </c>
     </row>
     <row r="754">
@@ -13492,7 +13492,7 @@
         <v>14</v>
       </c>
       <c r="E756" t="n">
-        <v>0.5641</v>
+        <v>0.5639</v>
       </c>
     </row>
     <row r="757">
@@ -13509,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="E757" t="n">
-        <v>0.6369</v>
+        <v>0.6371</v>
       </c>
     </row>
     <row r="758">
@@ -13662,7 +13662,7 @@
         <v>13</v>
       </c>
       <c r="E766" t="n">
-        <v>0.2973</v>
+        <v>0.2972</v>
       </c>
     </row>
     <row r="767">
@@ -13679,7 +13679,7 @@
         <v>13</v>
       </c>
       <c r="E767" t="n">
-        <v>0.2446</v>
+        <v>0.2448</v>
       </c>
     </row>
     <row r="768">
@@ -13849,7 +13849,7 @@
         <v>13</v>
       </c>
       <c r="E777" t="n">
-        <v>0.0024</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="778">
@@ -13968,7 +13968,7 @@
         <v>13</v>
       </c>
       <c r="E784" t="n">
-        <v>0.0892</v>
+        <v>0.0894</v>
       </c>
     </row>
     <row r="785">
@@ -13985,7 +13985,7 @@
         <v>13</v>
       </c>
       <c r="E785" t="n">
-        <v>0.0523</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="786">
@@ -14070,7 +14070,7 @@
         <v>13</v>
       </c>
       <c r="E790" t="n">
-        <v>0.1978</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="791">
@@ -14087,7 +14087,7 @@
         <v>13</v>
       </c>
       <c r="E791" t="n">
-        <v>0.1739</v>
+        <v>0.1736</v>
       </c>
     </row>
     <row r="792">
@@ -14138,7 +14138,7 @@
         <v>13</v>
       </c>
       <c r="E794" t="n">
-        <v>0.1701</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="795">
@@ -14155,7 +14155,7 @@
         <v>13</v>
       </c>
       <c r="E795" t="n">
-        <v>0.1534</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="796">
@@ -14223,7 +14223,7 @@
         <v>14</v>
       </c>
       <c r="E799" t="n">
-        <v>0.5473</v>
+        <v>0.5474</v>
       </c>
     </row>
     <row r="800">
@@ -14376,7 +14376,7 @@
         <v>13</v>
       </c>
       <c r="E808" t="n">
-        <v>0.3214</v>
+        <v>0.3215</v>
       </c>
     </row>
     <row r="809">
@@ -14393,7 +14393,7 @@
         <v>13</v>
       </c>
       <c r="E809" t="n">
-        <v>0.3092</v>
+        <v>0.3094</v>
       </c>
     </row>
     <row r="810">
@@ -14563,7 +14563,7 @@
         <v>13</v>
       </c>
       <c r="E819" t="n">
-        <v>0.0248</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="820">
@@ -14699,7 +14699,7 @@
         <v>13</v>
       </c>
       <c r="E827" t="n">
-        <v>0.067</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="828">
@@ -14801,7 +14801,7 @@
         <v>13</v>
       </c>
       <c r="E833" t="n">
-        <v>0.1996</v>
+        <v>0.1998</v>
       </c>
     </row>
     <row r="834">
@@ -14869,7 +14869,7 @@
         <v>13</v>
       </c>
       <c r="E837" t="n">
-        <v>0.1534</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="838">
@@ -14920,7 +14920,7 @@
         <v>14</v>
       </c>
       <c r="E840" t="n">
-        <v>0.7573</v>
+        <v>0.7572</v>
       </c>
     </row>
     <row r="841">
@@ -14937,7 +14937,7 @@
         <v>14</v>
       </c>
       <c r="E841" t="n">
-        <v>0.5105</v>
+        <v>0.5106</v>
       </c>
     </row>
     <row r="842">
@@ -15090,7 +15090,7 @@
         <v>13</v>
       </c>
       <c r="E850" t="n">
-        <v>0.2238</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="851">
@@ -15107,7 +15107,7 @@
         <v>13</v>
       </c>
       <c r="E851" t="n">
-        <v>0.2544</v>
+        <v>0.2547</v>
       </c>
     </row>
     <row r="852">
@@ -15260,7 +15260,7 @@
         <v>13</v>
       </c>
       <c r="E860" t="n">
-        <v>0.0296</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="861">
@@ -15277,7 +15277,7 @@
         <v>13</v>
       </c>
       <c r="E861" t="n">
-        <v>0.0225</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="862">
@@ -15413,7 +15413,7 @@
         <v>13</v>
       </c>
       <c r="E869" t="n">
-        <v>0.0533</v>
+        <v>0.0531</v>
       </c>
     </row>
     <row r="870">
@@ -15498,7 +15498,7 @@
         <v>13</v>
       </c>
       <c r="E874" t="n">
-        <v>0.1937</v>
+        <v>0.1934</v>
       </c>
     </row>
     <row r="875">
@@ -15515,7 +15515,7 @@
         <v>13</v>
       </c>
       <c r="E875" t="n">
-        <v>0.2065</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="876">
@@ -15566,7 +15566,7 @@
         <v>13</v>
       </c>
       <c r="E878" t="n">
-        <v>0.1863</v>
+        <v>0.1861</v>
       </c>
     </row>
     <row r="879">
@@ -15583,7 +15583,7 @@
         <v>13</v>
       </c>
       <c r="E879" t="n">
-        <v>0.1756</v>
+        <v>0.1759</v>
       </c>
     </row>
     <row r="880">
@@ -15634,7 +15634,7 @@
         <v>14</v>
       </c>
       <c r="E882" t="n">
-        <v>0.5747</v>
+        <v>0.5744</v>
       </c>
     </row>
     <row r="883">
@@ -15651,7 +15651,7 @@
         <v>14</v>
       </c>
       <c r="E883" t="n">
-        <v>0.5319</v>
+        <v>0.5322</v>
       </c>
     </row>
     <row r="884">
@@ -15804,7 +15804,7 @@
         <v>13</v>
       </c>
       <c r="E892" t="n">
-        <v>0.2838</v>
+        <v>0.2839</v>
       </c>
     </row>
     <row r="893">
@@ -15821,7 +15821,7 @@
         <v>13</v>
       </c>
       <c r="E893" t="n">
-        <v>0.2764</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="894">
@@ -15974,7 +15974,7 @@
         <v>13</v>
       </c>
       <c r="E902" t="n">
-        <v>0.0249</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="903">
@@ -15991,7 +15991,7 @@
         <v>13</v>
       </c>
       <c r="E903" t="n">
-        <v>0.019</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="904">
@@ -16110,7 +16110,7 @@
         <v>13</v>
       </c>
       <c r="E910" t="n">
-        <v>0.0571</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="911">
@@ -16127,7 +16127,7 @@
         <v>13</v>
       </c>
       <c r="E911" t="n">
-        <v>0.0571</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="912">
@@ -16229,7 +16229,7 @@
         <v>13</v>
       </c>
       <c r="E917" t="n">
-        <v>0.2094</v>
+        <v>0.2093</v>
       </c>
     </row>
     <row r="918">
@@ -16280,7 +16280,7 @@
         <v>13</v>
       </c>
       <c r="E920" t="n">
-        <v>0.1801</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="921">
@@ -16348,7 +16348,7 @@
         <v>14</v>
       </c>
       <c r="E924" t="n">
-        <v>0.5308</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="925">
@@ -16518,7 +16518,7 @@
         <v>13</v>
       </c>
       <c r="E934" t="n">
-        <v>0.2249</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="935">
@@ -16688,7 +16688,7 @@
         <v>13</v>
       </c>
       <c r="E944" t="n">
-        <v>0.0706</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="945">
@@ -16705,7 +16705,7 @@
         <v>13</v>
       </c>
       <c r="E945" t="n">
-        <v>0.0073</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="946">
@@ -16824,7 +16824,7 @@
         <v>13</v>
       </c>
       <c r="E952" t="n">
-        <v>0.0932</v>
+        <v>0.0931</v>
       </c>
     </row>
     <row r="953">
@@ -16841,7 +16841,7 @@
         <v>13</v>
       </c>
       <c r="E953" t="n">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="954">
@@ -16926,7 +16926,7 @@
         <v>13</v>
       </c>
       <c r="E958" t="n">
-        <v>0.2339</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="959">
@@ -16943,7 +16943,7 @@
         <v>13</v>
       </c>
       <c r="E959" t="n">
-        <v>0.1519</v>
+        <v>0.1521</v>
       </c>
     </row>
     <row r="960">
@@ -16994,7 +16994,7 @@
         <v>13</v>
       </c>
       <c r="E962" t="n">
-        <v>0.2152</v>
+        <v>0.2154</v>
       </c>
     </row>
     <row r="963">
@@ -17062,7 +17062,7 @@
         <v>14</v>
       </c>
       <c r="E966" t="n">
-        <v>0.6764</v>
+        <v>0.6761</v>
       </c>
     </row>
     <row r="967">
@@ -17079,7 +17079,7 @@
         <v>14</v>
       </c>
       <c r="E967" t="n">
-        <v>0.5338</v>
+        <v>0.5337</v>
       </c>
     </row>
     <row r="968">
@@ -17232,7 +17232,7 @@
         <v>13</v>
       </c>
       <c r="E976" t="n">
-        <v>0.2702</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="977">
@@ -17249,7 +17249,7 @@
         <v>13</v>
       </c>
       <c r="E977" t="n">
-        <v>0.3112</v>
+        <v>0.3113</v>
       </c>
     </row>
     <row r="978">
@@ -17402,7 +17402,7 @@
         <v>13</v>
       </c>
       <c r="E986" t="n">
-        <v>0.021</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="987">
@@ -17419,7 +17419,7 @@
         <v>13</v>
       </c>
       <c r="E987" t="n">
-        <v>0.0035</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="988">
@@ -17555,7 +17555,7 @@
         <v>13</v>
       </c>
       <c r="E995" t="n">
-        <v>0.0587</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="996">
@@ -17640,7 +17640,7 @@
         <v>13</v>
       </c>
       <c r="E1000" t="n">
-        <v>0.2116</v>
+        <v>0.2115</v>
       </c>
     </row>
     <row r="1001">
@@ -17657,7 +17657,7 @@
         <v>13</v>
       </c>
       <c r="E1001" t="n">
-        <v>0.1858</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="1002">
@@ -17708,7 +17708,7 @@
         <v>13</v>
       </c>
       <c r="E1004" t="n">
-        <v>0.1595</v>
+        <v>0.1592</v>
       </c>
     </row>
     <row r="1005">
@@ -17725,7 +17725,7 @@
         <v>13</v>
       </c>
       <c r="E1005" t="n">
-        <v>0.1686</v>
+        <v>0.1685</v>
       </c>
     </row>
     <row r="1006">
@@ -17793,7 +17793,7 @@
         <v>14</v>
       </c>
       <c r="E1009" t="n">
-        <v>0.5042</v>
+        <v>0.5047</v>
       </c>
     </row>
     <row r="1010">
@@ -17963,7 +17963,7 @@
         <v>13</v>
       </c>
       <c r="E1019" t="n">
-        <v>0.3766</v>
+        <v>0.3765</v>
       </c>
     </row>
     <row r="1020">
@@ -18116,7 +18116,7 @@
         <v>13</v>
       </c>
       <c r="E1028" t="n">
-        <v>0.0437</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="1029">
@@ -18133,7 +18133,7 @@
         <v>13</v>
       </c>
       <c r="E1029" t="n">
-        <v>0.0136</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="1030">
@@ -18252,7 +18252,7 @@
         <v>13</v>
       </c>
       <c r="E1036" t="n">
-        <v>0.0752</v>
+        <v>0.0753</v>
       </c>
     </row>
     <row r="1037">
@@ -18269,7 +18269,7 @@
         <v>13</v>
       </c>
       <c r="E1037" t="n">
-        <v>0.0657</v>
+        <v>0.0656</v>
       </c>
     </row>
     <row r="1038">
@@ -18439,7 +18439,7 @@
         <v>13</v>
       </c>
       <c r="E1047" t="n">
-        <v>0.2364</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="1048">
@@ -18660,7 +18660,7 @@
         <v>13</v>
       </c>
       <c r="E1060" t="n">
-        <v>0.3001</v>
+        <v>0.3003</v>
       </c>
     </row>
     <row r="1061">
@@ -18677,7 +18677,7 @@
         <v>13</v>
       </c>
       <c r="E1061" t="n">
-        <v>0.4184</v>
+        <v>0.4188</v>
       </c>
     </row>
     <row r="1062">
@@ -18830,7 +18830,7 @@
         <v>13</v>
       </c>
       <c r="E1070" t="n">
-        <v>0.0698</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="1071">
@@ -18847,7 +18847,7 @@
         <v>13</v>
       </c>
       <c r="E1071" t="n">
-        <v>0.0283</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="1072">
@@ -18966,7 +18966,7 @@
         <v>13</v>
       </c>
       <c r="E1078" t="n">
-        <v>0.0913</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="1079">
@@ -18983,7 +18983,7 @@
         <v>13</v>
       </c>
       <c r="E1079" t="n">
-        <v>0.0497</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="1080">
@@ -19068,7 +19068,7 @@
         <v>13</v>
       </c>
       <c r="E1084" t="n">
-        <v>0.2424</v>
+        <v>0.2423</v>
       </c>
     </row>
     <row r="1085">
@@ -19085,7 +19085,7 @@
         <v>13</v>
       </c>
       <c r="E1085" t="n">
-        <v>0.2244</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="1086">
@@ -19136,7 +19136,7 @@
         <v>13</v>
       </c>
       <c r="E1088" t="n">
-        <v>0.2239</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="1089">
@@ -19153,7 +19153,7 @@
         <v>13</v>
       </c>
       <c r="E1089" t="n">
-        <v>0.1963</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="1090">
@@ -19204,7 +19204,7 @@
         <v>14</v>
       </c>
       <c r="E1092" t="n">
-        <v>0.6225</v>
+        <v>0.6223</v>
       </c>
     </row>
     <row r="1093">
@@ -19221,7 +19221,7 @@
         <v>14</v>
       </c>
       <c r="E1093" t="n">
-        <v>0.6722</v>
+        <v>0.6727</v>
       </c>
     </row>
     <row r="1094">
@@ -19374,7 +19374,7 @@
         <v>13</v>
       </c>
       <c r="E1102" t="n">
-        <v>0.3343</v>
+        <v>0.3346</v>
       </c>
     </row>
     <row r="1103">
@@ -19391,7 +19391,7 @@
         <v>13</v>
       </c>
       <c r="E1103" t="n">
-        <v>0.2469</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="1104">
@@ -19544,7 +19544,7 @@
         <v>13</v>
       </c>
       <c r="E1112" t="n">
-        <v>0.0535</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="1113">
@@ -19561,7 +19561,7 @@
         <v>13</v>
       </c>
       <c r="E1113" t="n">
-        <v>0.0127</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="1114">
@@ -19680,7 +19680,7 @@
         <v>13</v>
       </c>
       <c r="E1120" t="n">
-        <v>0.0607</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="1121">
@@ -19697,7 +19697,7 @@
         <v>13</v>
       </c>
       <c r="E1121" t="n">
-        <v>0.0703</v>
+        <v>0.0701</v>
       </c>
     </row>
     <row r="1122">
@@ -19782,7 +19782,7 @@
         <v>13</v>
       </c>
       <c r="E1126" t="n">
-        <v>0.1821</v>
+        <v>0.1819</v>
       </c>
     </row>
     <row r="1127">
@@ -19799,7 +19799,7 @@
         <v>13</v>
       </c>
       <c r="E1127" t="n">
-        <v>0.2256</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="1128">
@@ -19867,7 +19867,7 @@
         <v>13</v>
       </c>
       <c r="E1131" t="n">
-        <v>0.194</v>
+        <v>0.1939</v>
       </c>
     </row>
     <row r="1132">
@@ -19918,7 +19918,7 @@
         <v>14</v>
       </c>
       <c r="E1134" t="n">
-        <v>0.5936</v>
+        <v>0.5937</v>
       </c>
     </row>
     <row r="1135">
@@ -19935,7 +19935,7 @@
         <v>14</v>
       </c>
       <c r="E1135" t="n">
-        <v>0.548</v>
+        <v>0.5479</v>
       </c>
     </row>
     <row r="1136">
@@ -20088,7 +20088,7 @@
         <v>13</v>
       </c>
       <c r="E1144" t="n">
-        <v>0.2853</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="1145">
@@ -20105,7 +20105,7 @@
         <v>13</v>
       </c>
       <c r="E1145" t="n">
-        <v>0.2502</v>
+        <v>0.2499</v>
       </c>
     </row>
     <row r="1146">
@@ -20258,7 +20258,7 @@
         <v>13</v>
       </c>
       <c r="E1154" t="n">
-        <v>0.0278</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="1155">
@@ -20275,7 +20275,7 @@
         <v>13</v>
       </c>
       <c r="E1155" t="n">
-        <v>0.0157</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="1156">
@@ -20394,7 +20394,7 @@
         <v>13</v>
       </c>
       <c r="E1162" t="n">
-        <v>0.0845</v>
+        <v>0.0846</v>
       </c>
     </row>
     <row r="1163">
@@ -20411,7 +20411,7 @@
         <v>13</v>
       </c>
       <c r="E1163" t="n">
-        <v>0.0692</v>
+        <v>0.0693</v>
       </c>
     </row>
     <row r="1164">
@@ -20496,7 +20496,7 @@
         <v>13</v>
       </c>
       <c r="E1168" t="n">
-        <v>0.1845</v>
+        <v>0.1844</v>
       </c>
     </row>
     <row r="1169">
@@ -20513,7 +20513,7 @@
         <v>13</v>
       </c>
       <c r="E1169" t="n">
-        <v>0.2474</v>
+        <v>0.2473</v>
       </c>
     </row>
     <row r="1170">
@@ -20564,7 +20564,7 @@
         <v>13</v>
       </c>
       <c r="E1172" t="n">
-        <v>0.153</v>
+        <v>0.1531</v>
       </c>
     </row>
     <row r="1173">
@@ -20581,7 +20581,7 @@
         <v>13</v>
       </c>
       <c r="E1173" t="n">
-        <v>0.1552</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="1174">
@@ -20632,7 +20632,7 @@
         <v>14</v>
       </c>
       <c r="E1176" t="n">
-        <v>0.6084</v>
+        <v>0.6083</v>
       </c>
     </row>
     <row r="1177">
@@ -20649,7 +20649,7 @@
         <v>14</v>
       </c>
       <c r="E1177" t="n">
-        <v>0.5511</v>
+        <v>0.5509</v>
       </c>
     </row>
     <row r="1178">
@@ -20802,7 +20802,7 @@
         <v>13</v>
       </c>
       <c r="E1186" t="n">
-        <v>0.3558</v>
+        <v>0.3554</v>
       </c>
     </row>
     <row r="1187">
@@ -20819,7 +20819,7 @@
         <v>13</v>
       </c>
       <c r="E1187" t="n">
-        <v>0.337</v>
+        <v>0.3367</v>
       </c>
     </row>
     <row r="1188">
@@ -20972,7 +20972,7 @@
         <v>13</v>
       </c>
       <c r="E1196" t="n">
-        <v>0.038</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="1197">
@@ -20989,7 +20989,7 @@
         <v>13</v>
       </c>
       <c r="E1197" t="n">
-        <v>0.016</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="1198">
@@ -21108,7 +21108,7 @@
         <v>13</v>
       </c>
       <c r="E1204" t="n">
-        <v>0.1048</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="1205">
@@ -21125,7 +21125,7 @@
         <v>13</v>
       </c>
       <c r="E1205" t="n">
-        <v>0.084</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="1206">
@@ -21210,7 +21210,7 @@
         <v>13</v>
       </c>
       <c r="E1210" t="n">
-        <v>0.1946</v>
+        <v>0.1952</v>
       </c>
     </row>
     <row r="1211">
@@ -21227,7 +21227,7 @@
         <v>13</v>
       </c>
       <c r="E1211" t="n">
-        <v>0.2461</v>
+        <v>0.2459</v>
       </c>
     </row>
     <row r="1212">
@@ -21278,7 +21278,7 @@
         <v>13</v>
       </c>
       <c r="E1214" t="n">
-        <v>0.1874</v>
+        <v>0.1879</v>
       </c>
     </row>
     <row r="1215">
@@ -21295,7 +21295,7 @@
         <v>13</v>
       </c>
       <c r="E1215" t="n">
-        <v>0.1857</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="1216">
@@ -21346,7 +21346,7 @@
         <v>14</v>
       </c>
       <c r="E1218" t="n">
-        <v>0.6257</v>
+        <v>0.6253</v>
       </c>
     </row>
     <row r="1219">
@@ -21363,7 +21363,7 @@
         <v>14</v>
       </c>
       <c r="E1219" t="n">
-        <v>0.6297</v>
+        <v>0.6294</v>
       </c>
     </row>
     <row r="1220">
@@ -21703,7 +21703,7 @@
         <v>13</v>
       </c>
       <c r="E1239" t="n">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="1240">
@@ -21822,7 +21822,7 @@
         <v>13</v>
       </c>
       <c r="E1246" t="n">
-        <v>0.0712</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="1247">
@@ -21839,7 +21839,7 @@
         <v>13</v>
       </c>
       <c r="E1247" t="n">
-        <v>0.0787</v>
+        <v>0.0789</v>
       </c>
     </row>
     <row r="1248">
@@ -21924,7 +21924,7 @@
         <v>13</v>
       </c>
       <c r="E1252" t="n">
-        <v>0.2386</v>
+        <v>0.2384</v>
       </c>
     </row>
     <row r="1253">
@@ -21941,7 +21941,7 @@
         <v>13</v>
       </c>
       <c r="E1253" t="n">
-        <v>0.3595</v>
+        <v>0.3593</v>
       </c>
     </row>
     <row r="1254">
@@ -22077,7 +22077,7 @@
         <v>14</v>
       </c>
       <c r="E1261" t="n">
-        <v>0.5695</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="1262">
@@ -22230,7 +22230,7 @@
         <v>13</v>
       </c>
       <c r="E1270" t="n">
-        <v>0.2892</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="1271">
@@ -22400,7 +22400,7 @@
         <v>13</v>
       </c>
       <c r="E1280" t="n">
-        <v>0.0857</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="1281">
@@ -22417,7 +22417,7 @@
         <v>13</v>
       </c>
       <c r="E1281" t="n">
-        <v>0.0222</v>
+        <v>0.0226</v>
       </c>
     </row>
     <row r="1282">
@@ -22536,7 +22536,7 @@
         <v>13</v>
       </c>
       <c r="E1288" t="n">
-        <v>0.1194</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="1289">
@@ -22553,7 +22553,7 @@
         <v>13</v>
       </c>
       <c r="E1289" t="n">
-        <v>0.0787</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="1290">
@@ -22706,7 +22706,7 @@
         <v>13</v>
       </c>
       <c r="E1298" t="n">
-        <v>0.2569</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="1299">
@@ -22723,7 +22723,7 @@
         <v>13</v>
       </c>
       <c r="E1299" t="n">
-        <v>0.187</v>
+        <v>0.1866</v>
       </c>
     </row>
     <row r="1300">
@@ -22774,7 +22774,7 @@
         <v>14</v>
       </c>
       <c r="E1302" t="n">
-        <v>0.5648</v>
+        <v>0.5646</v>
       </c>
     </row>
     <row r="1303">
@@ -22791,7 +22791,7 @@
         <v>14</v>
       </c>
       <c r="E1303" t="n">
-        <v>0.5044</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="1304">
@@ -22944,7 +22944,7 @@
         <v>13</v>
       </c>
       <c r="E1312" t="n">
-        <v>0.3115</v>
+        <v>0.3116</v>
       </c>
     </row>
     <row r="1313">
@@ -22961,7 +22961,7 @@
         <v>13</v>
       </c>
       <c r="E1313" t="n">
-        <v>0.3253</v>
+        <v>0.3255</v>
       </c>
     </row>
     <row r="1314">
@@ -23131,7 +23131,7 @@
         <v>13</v>
       </c>
       <c r="E1323" t="n">
-        <v>0.0253</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="1324">
@@ -23250,7 +23250,7 @@
         <v>13</v>
       </c>
       <c r="E1330" t="n">
-        <v>0.0863</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="1331">
@@ -23267,7 +23267,7 @@
         <v>13</v>
       </c>
       <c r="E1331" t="n">
-        <v>0.0595</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="1332">
@@ -23352,7 +23352,7 @@
         <v>13</v>
       </c>
       <c r="E1336" t="n">
-        <v>0.1836</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="1337">
@@ -23420,7 +23420,7 @@
         <v>13</v>
       </c>
       <c r="E1340" t="n">
-        <v>0.1533</v>
+        <v>0.1535</v>
       </c>
     </row>
     <row r="1341">
@@ -23437,7 +23437,7 @@
         <v>13</v>
       </c>
       <c r="E1341" t="n">
-        <v>0.1776</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="1342">
@@ -23488,7 +23488,7 @@
         <v>14</v>
       </c>
       <c r="E1344" t="n">
-        <v>0.678</v>
+        <v>0.6782</v>
       </c>
     </row>
     <row r="1345">
@@ -23505,7 +23505,7 @@
         <v>14</v>
       </c>
       <c r="E1345" t="n">
-        <v>0.5638</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="1346">
@@ -23658,7 +23658,7 @@
         <v>13</v>
       </c>
       <c r="E1354" t="n">
-        <v>0.2928</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="1355">
@@ -23675,7 +23675,7 @@
         <v>13</v>
       </c>
       <c r="E1355" t="n">
-        <v>0.3063</v>
+        <v>0.3066</v>
       </c>
     </row>
     <row r="1356">
@@ -23828,7 +23828,7 @@
         <v>13</v>
       </c>
       <c r="E1364" t="n">
-        <v>0.0525</v>
+        <v>0.0523</v>
       </c>
     </row>
     <row r="1365">
@@ -23845,7 +23845,7 @@
         <v>13</v>
       </c>
       <c r="E1365" t="n">
-        <v>0.0055</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="1366">
@@ -23981,7 +23981,7 @@
         <v>13</v>
       </c>
       <c r="E1373" t="n">
-        <v>0.0806</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="1374">
@@ -24066,7 +24066,7 @@
         <v>13</v>
       </c>
       <c r="E1378" t="n">
-        <v>0.1868</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="1379">
@@ -24083,7 +24083,7 @@
         <v>13</v>
       </c>
       <c r="E1379" t="n">
-        <v>0.1824</v>
+        <v>0.1821</v>
       </c>
     </row>
     <row r="1380">
@@ -24134,7 +24134,7 @@
         <v>13</v>
       </c>
       <c r="E1382" t="n">
-        <v>0.2029</v>
+        <v>0.2032</v>
       </c>
     </row>
     <row r="1383">
@@ -24151,7 +24151,7 @@
         <v>13</v>
       </c>
       <c r="E1383" t="n">
-        <v>0.1473</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="1384">
@@ -24202,7 +24202,7 @@
         <v>14</v>
       </c>
       <c r="E1386" t="n">
-        <v>0.5338</v>
+        <v>0.5341</v>
       </c>
     </row>
     <row r="1387">
@@ -24219,7 +24219,7 @@
         <v>14</v>
       </c>
       <c r="E1387" t="n">
-        <v>0.5157</v>
+        <v>0.5155</v>
       </c>
     </row>
     <row r="1388">
@@ -24542,7 +24542,7 @@
         <v>13</v>
       </c>
       <c r="E1406" t="n">
-        <v>0.0276</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="1407">
@@ -24678,7 +24678,7 @@
         <v>13</v>
       </c>
       <c r="E1414" t="n">
-        <v>0.0866</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="1415">
@@ -24797,7 +24797,7 @@
         <v>13</v>
       </c>
       <c r="E1421" t="n">
-        <v>0.2218</v>
+        <v>0.2217</v>
       </c>
     </row>
     <row r="1422">
@@ -24848,7 +24848,7 @@
         <v>13</v>
       </c>
       <c r="E1424" t="n">
-        <v>0.179</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="1425">
@@ -24865,7 +24865,7 @@
         <v>13</v>
       </c>
       <c r="E1425" t="n">
-        <v>0.1803</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="1426">
@@ -24916,7 +24916,7 @@
         <v>14</v>
       </c>
       <c r="E1428" t="n">
-        <v>0.5756</v>
+        <v>0.5753</v>
       </c>
     </row>
     <row r="1429">
@@ -24933,7 +24933,7 @@
         <v>14</v>
       </c>
       <c r="E1429" t="n">
-        <v>0.5594</v>
+        <v>0.5595</v>
       </c>
     </row>
     <row r="1430">
@@ -25086,7 +25086,7 @@
         <v>13</v>
       </c>
       <c r="E1438" t="n">
-        <v>0.2602</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="1439">
@@ -25103,7 +25103,7 @@
         <v>13</v>
       </c>
       <c r="E1439" t="n">
-        <v>0.2372</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="1440">
@@ -25256,7 +25256,7 @@
         <v>13</v>
       </c>
       <c r="E1448" t="n">
-        <v>0.0286</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="1449">
@@ -25273,7 +25273,7 @@
         <v>13</v>
       </c>
       <c r="E1449" t="n">
-        <v>0.0231</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="1450">
@@ -25409,7 +25409,7 @@
         <v>13</v>
       </c>
       <c r="E1457" t="n">
-        <v>0.0817</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="1458">
@@ -25494,7 +25494,7 @@
         <v>13</v>
       </c>
       <c r="E1462" t="n">
-        <v>0.2075</v>
+        <v>0.2074</v>
       </c>
     </row>
     <row r="1463">
@@ -25511,7 +25511,7 @@
         <v>13</v>
       </c>
       <c r="E1463" t="n">
-        <v>0.2883</v>
+        <v>0.2882</v>
       </c>
     </row>
     <row r="1464">
@@ -25562,7 +25562,7 @@
         <v>13</v>
       </c>
       <c r="E1466" t="n">
-        <v>0.1932</v>
+        <v>0.1931</v>
       </c>
     </row>
     <row r="1467">
@@ -25579,7 +25579,7 @@
         <v>13</v>
       </c>
       <c r="E1467" t="n">
-        <v>0.1918</v>
+        <v>0.1917</v>
       </c>
     </row>
     <row r="1468">
@@ -25647,7 +25647,7 @@
         <v>14</v>
       </c>
       <c r="E1471" t="n">
-        <v>0.5719</v>
+        <v>0.5723</v>
       </c>
     </row>
     <row r="1472">
@@ -25800,7 +25800,7 @@
         <v>13</v>
       </c>
       <c r="E1480" t="n">
-        <v>0.2766</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="1481">
@@ -25817,7 +25817,7 @@
         <v>13</v>
       </c>
       <c r="E1481" t="n">
-        <v>0.3214</v>
+        <v>0.3215</v>
       </c>
     </row>
     <row r="1482">
@@ -25970,7 +25970,7 @@
         <v>13</v>
       </c>
       <c r="E1490" t="n">
-        <v>0.0837</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="1491">
@@ -26106,7 +26106,7 @@
         <v>13</v>
       </c>
       <c r="E1498" t="n">
-        <v>0.0675</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="1499">
@@ -26123,7 +26123,7 @@
         <v>13</v>
       </c>
       <c r="E1499" t="n">
-        <v>0.1045</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="1500">
@@ -26208,7 +26208,7 @@
         <v>13</v>
       </c>
       <c r="E1504" t="n">
-        <v>0.237</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="1505">
@@ -26225,7 +26225,7 @@
         <v>13</v>
       </c>
       <c r="E1505" t="n">
-        <v>0.1627</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="1506">
@@ -26276,7 +26276,7 @@
         <v>13</v>
       </c>
       <c r="E1508" t="n">
-        <v>0.2557</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="1509">
@@ -26293,7 +26293,7 @@
         <v>13</v>
       </c>
       <c r="E1509" t="n">
-        <v>0.1817</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="1510">
@@ -26344,7 +26344,7 @@
         <v>14</v>
       </c>
       <c r="E1512" t="n">
-        <v>0.5407</v>
+        <v>0.5409</v>
       </c>
     </row>
     <row r="1513">
@@ -26361,7 +26361,7 @@
         <v>14</v>
       </c>
       <c r="E1513" t="n">
-        <v>0.6832</v>
+        <v>0.6833</v>
       </c>
     </row>
     <row r="1514">
@@ -26514,7 +26514,7 @@
         <v>13</v>
       </c>
       <c r="E1522" t="n">
-        <v>0.2536</v>
+        <v>0.2531</v>
       </c>
     </row>
     <row r="1523">
@@ -26531,7 +26531,7 @@
         <v>13</v>
       </c>
       <c r="E1523" t="n">
-        <v>0.288</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="1524">
@@ -26684,7 +26684,7 @@
         <v>13</v>
       </c>
       <c r="E1532" t="n">
-        <v>0.0452</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="1533">
@@ -26820,7 +26820,7 @@
         <v>13</v>
       </c>
       <c r="E1540" t="n">
-        <v>0.0961</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="1541">
@@ -26837,7 +26837,7 @@
         <v>13</v>
       </c>
       <c r="E1541" t="n">
-        <v>0.0886</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="1542">
@@ -26922,7 +26922,7 @@
         <v>13</v>
       </c>
       <c r="E1546" t="n">
-        <v>0.2221</v>
+        <v>0.2223</v>
       </c>
     </row>
     <row r="1547">
@@ -26939,7 +26939,7 @@
         <v>13</v>
       </c>
       <c r="E1547" t="n">
-        <v>0.2965</v>
+        <v>0.2966</v>
       </c>
     </row>
     <row r="1548">
@@ -26990,7 +26990,7 @@
         <v>13</v>
       </c>
       <c r="E1550" t="n">
-        <v>0.2417</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="1551">
@@ -27058,7 +27058,7 @@
         <v>14</v>
       </c>
       <c r="E1554" t="n">
-        <v>0.577</v>
+        <v>0.5773</v>
       </c>
     </row>
     <row r="1555">
@@ -27075,7 +27075,7 @@
         <v>14</v>
       </c>
       <c r="E1555" t="n">
-        <v>0.5018</v>
+        <v>0.5017</v>
       </c>
     </row>
     <row r="1556">
@@ -27245,7 +27245,7 @@
         <v>13</v>
       </c>
       <c r="E1565" t="n">
-        <v>0.3944</v>
+        <v>0.3941</v>
       </c>
     </row>
     <row r="1566">
@@ -27398,7 +27398,7 @@
         <v>13</v>
       </c>
       <c r="E1574" t="n">
-        <v>0.0805</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="1575">
@@ -27415,7 +27415,7 @@
         <v>13</v>
       </c>
       <c r="E1575" t="n">
-        <v>0.011</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="1576">
@@ -27534,7 +27534,7 @@
         <v>13</v>
       </c>
       <c r="E1582" t="n">
-        <v>0.0909</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="1583">
@@ -27551,7 +27551,7 @@
         <v>13</v>
       </c>
       <c r="E1583" t="n">
-        <v>0.0504</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="1584">
@@ -27636,7 +27636,7 @@
         <v>13</v>
       </c>
       <c r="E1588" t="n">
-        <v>0.2346</v>
+        <v>0.2347</v>
       </c>
     </row>
     <row r="1589">
@@ -27653,7 +27653,7 @@
         <v>13</v>
       </c>
       <c r="E1589" t="n">
-        <v>0.1525</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="1590">
@@ -27721,7 +27721,7 @@
         <v>13</v>
       </c>
       <c r="E1593" t="n">
-        <v>0.1552</v>
+        <v>0.1549</v>
       </c>
     </row>
     <row r="1594">
@@ -27789,7 +27789,7 @@
         <v>14</v>
       </c>
       <c r="E1597" t="n">
-        <v>0.6296</v>
+        <v>0.6294</v>
       </c>
     </row>
     <row r="1598">
@@ -27942,7 +27942,7 @@
         <v>13</v>
       </c>
       <c r="E1606" t="n">
-        <v>0.3097</v>
+        <v>0.3096</v>
       </c>
     </row>
     <row r="1607">
@@ -27959,7 +27959,7 @@
         <v>13</v>
       </c>
       <c r="E1607" t="n">
-        <v>0.3349</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="1608">
@@ -28112,7 +28112,7 @@
         <v>13</v>
       </c>
       <c r="E1616" t="n">
-        <v>0.042</v>
+        <v>0.0422</v>
       </c>
     </row>
     <row r="1617">
@@ -28129,7 +28129,7 @@
         <v>13</v>
       </c>
       <c r="E1617" t="n">
-        <v>0.0099</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1618">
@@ -28248,7 +28248,7 @@
         <v>13</v>
       </c>
       <c r="E1624" t="n">
-        <v>0.0948</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="1625">
@@ -28367,7 +28367,7 @@
         <v>13</v>
       </c>
       <c r="E1631" t="n">
-        <v>0.2602</v>
+        <v>0.2603</v>
       </c>
     </row>
     <row r="1632">
@@ -28435,7 +28435,7 @@
         <v>13</v>
       </c>
       <c r="E1635" t="n">
-        <v>0.2333</v>
+        <v>0.2334</v>
       </c>
     </row>
     <row r="1636">
@@ -28486,7 +28486,7 @@
         <v>14</v>
       </c>
       <c r="E1638" t="n">
-        <v>0.533</v>
+        <v>0.5328</v>
       </c>
     </row>
     <row r="1639">
@@ -28503,7 +28503,7 @@
         <v>14</v>
       </c>
       <c r="E1639" t="n">
-        <v>0.5942</v>
+        <v>0.5943</v>
       </c>
     </row>
     <row r="1640">
@@ -28656,7 +28656,7 @@
         <v>13</v>
       </c>
       <c r="E1648" t="n">
-        <v>0.2377</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="1649">
@@ -28673,7 +28673,7 @@
         <v>13</v>
       </c>
       <c r="E1649" t="n">
-        <v>0.2576</v>
+        <v>0.2581</v>
       </c>
     </row>
     <row r="1650">
@@ -28826,7 +28826,7 @@
         <v>13</v>
       </c>
       <c r="E1658" t="n">
-        <v>0.0697</v>
+        <v>0.0695</v>
       </c>
     </row>
     <row r="1659">
@@ -28843,7 +28843,7 @@
         <v>13</v>
       </c>
       <c r="E1659" t="n">
-        <v>0.0057</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="1660">
@@ -28962,7 +28962,7 @@
         <v>13</v>
       </c>
       <c r="E1666" t="n">
-        <v>0.0882</v>
+        <v>0.0884</v>
       </c>
     </row>
     <row r="1667">
@@ -28979,7 +28979,7 @@
         <v>13</v>
       </c>
       <c r="E1667" t="n">
-        <v>0.0608</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="1668">
@@ -29064,7 +29064,7 @@
         <v>13</v>
       </c>
       <c r="E1672" t="n">
-        <v>0.2659</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="1673">
@@ -29081,7 +29081,7 @@
         <v>13</v>
       </c>
       <c r="E1673" t="n">
-        <v>0.1466</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="1674">
@@ -29132,7 +29132,7 @@
         <v>13</v>
       </c>
       <c r="E1676" t="n">
-        <v>0.245</v>
+        <v>0.2447</v>
       </c>
     </row>
     <row r="1677">
@@ -29149,7 +29149,7 @@
         <v>13</v>
       </c>
       <c r="E1677" t="n">
-        <v>0.1438</v>
+        <v>0.1432</v>
       </c>
     </row>
     <row r="1678">
@@ -29200,7 +29200,7 @@
         <v>14</v>
       </c>
       <c r="E1680" t="n">
-        <v>0.5375</v>
+        <v>0.5372</v>
       </c>
     </row>
     <row r="1681">
@@ -29217,7 +29217,7 @@
         <v>14</v>
       </c>
       <c r="E1681" t="n">
-        <v>0.551</v>
+        <v>0.5517</v>
       </c>
     </row>
     <row r="1682">
@@ -29370,7 +29370,7 @@
         <v>13</v>
       </c>
       <c r="E1690" t="n">
-        <v>0.3133</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="1691">
@@ -29387,7 +29387,7 @@
         <v>13</v>
       </c>
       <c r="E1691" t="n">
-        <v>0.2707</v>
+        <v>0.2711</v>
       </c>
     </row>
     <row r="1692">
@@ -29540,7 +29540,7 @@
         <v>13</v>
       </c>
       <c r="E1700" t="n">
-        <v>0.0321</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="1701">
@@ -29557,7 +29557,7 @@
         <v>13</v>
       </c>
       <c r="E1701" t="n">
-        <v>0.021</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="1702">
@@ -29676,7 +29676,7 @@
         <v>13</v>
       </c>
       <c r="E1708" t="n">
-        <v>0.0834</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="1709">
@@ -29693,7 +29693,7 @@
         <v>13</v>
       </c>
       <c r="E1709" t="n">
-        <v>0.0825</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="1710">
@@ -29795,7 +29795,7 @@
         <v>13</v>
       </c>
       <c r="E1715" t="n">
-        <v>0.2063</v>
+        <v>0.2064</v>
       </c>
     </row>
     <row r="1716">
@@ -29846,7 +29846,7 @@
         <v>13</v>
       </c>
       <c r="E1718" t="n">
-        <v>0.1907</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="1719">
@@ -29863,7 +29863,7 @@
         <v>13</v>
       </c>
       <c r="E1719" t="n">
-        <v>0.1826</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="1720">
@@ -29914,7 +29914,7 @@
         <v>14</v>
       </c>
       <c r="E1722" t="n">
-        <v>0.5627</v>
+        <v>0.5631</v>
       </c>
     </row>
     <row r="1723">
@@ -29931,7 +29931,7 @@
         <v>14</v>
       </c>
       <c r="E1723" t="n">
-        <v>0.6704</v>
+        <v>0.6708</v>
       </c>
     </row>
     <row r="1724">
@@ -30084,7 +30084,7 @@
         <v>13</v>
       </c>
       <c r="E1732" t="n">
-        <v>0.2541</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="1733">
@@ -30101,7 +30101,7 @@
         <v>13</v>
       </c>
       <c r="E1733" t="n">
-        <v>0.3803</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="1734">
@@ -30254,7 +30254,7 @@
         <v>13</v>
       </c>
       <c r="E1742" t="n">
-        <v>0.0711</v>
+        <v>0.0713</v>
       </c>
     </row>
     <row r="1743">
@@ -30271,7 +30271,7 @@
         <v>13</v>
       </c>
       <c r="E1743" t="n">
-        <v>0.0237</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="1744">
@@ -30390,7 +30390,7 @@
         <v>13</v>
       </c>
       <c r="E1750" t="n">
-        <v>0.0839</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="1751">
@@ -30407,7 +30407,7 @@
         <v>13</v>
       </c>
       <c r="E1751" t="n">
-        <v>0.074</v>
+        <v>0.0738</v>
       </c>
     </row>
     <row r="1752">
@@ -30492,7 +30492,7 @@
         <v>13</v>
       </c>
       <c r="E1756" t="n">
-        <v>0.2487</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="1757">
@@ -30509,7 +30509,7 @@
         <v>13</v>
       </c>
       <c r="E1757" t="n">
-        <v>0.1991</v>
+        <v>0.1992</v>
       </c>
     </row>
     <row r="1758">
@@ -30560,7 +30560,7 @@
         <v>13</v>
       </c>
       <c r="E1760" t="n">
-        <v>0.2382</v>
+        <v>0.2384</v>
       </c>
     </row>
     <row r="1761">
@@ -30577,7 +30577,7 @@
         <v>13</v>
       </c>
       <c r="E1761" t="n">
-        <v>0.1793</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="1762">
@@ -30628,7 +30628,7 @@
         <v>14</v>
       </c>
       <c r="E1764" t="n">
-        <v>0.5555</v>
+        <v>0.5552</v>
       </c>
     </row>
     <row r="1765">
@@ -30645,7 +30645,7 @@
         <v>14</v>
       </c>
       <c r="E1765" t="n">
-        <v>0.5964</v>
+        <v>0.5961</v>
       </c>
     </row>
     <row r="1766">
@@ -30798,7 +30798,7 @@
         <v>13</v>
       </c>
       <c r="E1774" t="n">
-        <v>0.2813</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="1775">
@@ -30968,7 +30968,7 @@
         <v>13</v>
       </c>
       <c r="E1784" t="n">
-        <v>0.0592</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="1785">
@@ -30985,7 +30985,7 @@
         <v>13</v>
       </c>
       <c r="E1785" t="n">
-        <v>0.0353</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="1786">
@@ -31104,7 +31104,7 @@
         <v>13</v>
       </c>
       <c r="E1792" t="n">
-        <v>0.0733</v>
+        <v>0.0732</v>
       </c>
     </row>
     <row r="1793">
@@ -31121,7 +31121,7 @@
         <v>13</v>
       </c>
       <c r="E1793" t="n">
-        <v>0.0789</v>
+        <v>0.0791</v>
       </c>
     </row>
     <row r="1794">
@@ -31206,7 +31206,7 @@
         <v>13</v>
       </c>
       <c r="E1798" t="n">
-        <v>0.2304</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="1799">
@@ -31274,7 +31274,7 @@
         <v>13</v>
       </c>
       <c r="E1802" t="n">
-        <v>0.2403</v>
+        <v>0.2401</v>
       </c>
     </row>
     <row r="1803">
@@ -31342,7 +31342,7 @@
         <v>14</v>
       </c>
       <c r="E1806" t="n">
-        <v>0.515</v>
+        <v>0.5153</v>
       </c>
     </row>
     <row r="1807">
@@ -31512,7 +31512,7 @@
         <v>13</v>
       </c>
       <c r="E1816" t="n">
-        <v>0.3712</v>
+        <v>0.3711</v>
       </c>
     </row>
     <row r="1817">
@@ -31682,7 +31682,7 @@
         <v>13</v>
       </c>
       <c r="E1826" t="n">
-        <v>0.0759</v>
+        <v>0.0761</v>
       </c>
     </row>
     <row r="1827">
@@ -31699,7 +31699,7 @@
         <v>13</v>
       </c>
       <c r="E1827" t="n">
-        <v>0.0247</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="1828">
@@ -31818,7 +31818,7 @@
         <v>13</v>
       </c>
       <c r="E1834" t="n">
-        <v>0.081</v>
+        <v>0.0808</v>
       </c>
     </row>
     <row r="1835">
@@ -31920,7 +31920,7 @@
         <v>13</v>
       </c>
       <c r="E1840" t="n">
-        <v>0.2301</v>
+        <v>0.2302</v>
       </c>
     </row>
     <row r="1841">
@@ -31937,7 +31937,7 @@
         <v>13</v>
       </c>
       <c r="E1841" t="n">
-        <v>0.1743</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="1842">
@@ -31988,7 +31988,7 @@
         <v>13</v>
       </c>
       <c r="E1844" t="n">
-        <v>0.2215</v>
+        <v>0.2216</v>
       </c>
     </row>
     <row r="1845">
@@ -32005,7 +32005,7 @@
         <v>13</v>
       </c>
       <c r="E1845" t="n">
-        <v>0.2029</v>
+        <v>0.2026</v>
       </c>
     </row>
     <row r="1846">
@@ -32073,7 +32073,7 @@
         <v>14</v>
       </c>
       <c r="E1849" t="n">
-        <v>0.6285</v>
+        <v>0.6284</v>
       </c>
     </row>
     <row r="1850">
@@ -32226,7 +32226,7 @@
         <v>13</v>
       </c>
       <c r="E1858" t="n">
-        <v>0.2728</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="1859">
@@ -32243,7 +32243,7 @@
         <v>13</v>
       </c>
       <c r="E1859" t="n">
-        <v>0.4388</v>
+        <v>0.4387</v>
       </c>
     </row>
     <row r="1860">
@@ -32396,7 +32396,7 @@
         <v>13</v>
       </c>
       <c r="E1868" t="n">
-        <v>0.0902</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="1869">
@@ -32413,7 +32413,7 @@
         <v>13</v>
       </c>
       <c r="E1869" t="n">
-        <v>0.0313</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="1870">
@@ -32549,7 +32549,7 @@
         <v>13</v>
       </c>
       <c r="E1877" t="n">
-        <v>0.0868</v>
+        <v>0.0866</v>
       </c>
     </row>
     <row r="1878">
@@ -32651,7 +32651,7 @@
         <v>13</v>
       </c>
       <c r="E1883" t="n">
-        <v>0.2174</v>
+        <v>0.2171</v>
       </c>
     </row>
     <row r="1884">
@@ -32702,7 +32702,7 @@
         <v>13</v>
       </c>
       <c r="E1886" t="n">
-        <v>0.2832</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="1887">
@@ -32719,7 +32719,7 @@
         <v>13</v>
       </c>
       <c r="E1887" t="n">
-        <v>0.1697</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="1888">
@@ -32787,7 +32787,7 @@
         <v>14</v>
       </c>
       <c r="E1891" t="n">
-        <v>0.6549</v>
+        <v>0.6547</v>
       </c>
     </row>
     <row r="1892">
@@ -32957,7 +32957,7 @@
         <v>13</v>
       </c>
       <c r="E1901" t="n">
-        <v>0.2806</v>
+        <v>0.2803</v>
       </c>
     </row>
     <row r="1902">
@@ -33110,7 +33110,7 @@
         <v>13</v>
       </c>
       <c r="E1910" t="n">
-        <v>0.0431</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="1911">
@@ -33263,7 +33263,7 @@
         <v>13</v>
       </c>
       <c r="E1919" t="n">
-        <v>0.0717</v>
+        <v>0.0718</v>
       </c>
     </row>
     <row r="1920">
@@ -33365,7 +33365,7 @@
         <v>13</v>
       </c>
       <c r="E1925" t="n">
-        <v>0.1937</v>
+        <v>0.1934</v>
       </c>
     </row>
     <row r="1926">
@@ -33501,7 +33501,7 @@
         <v>14</v>
       </c>
       <c r="E1933" t="n">
-        <v>0.6642</v>
+        <v>0.6641</v>
       </c>
     </row>
     <row r="1934">
@@ -33671,7 +33671,7 @@
         <v>13</v>
       </c>
       <c r="E1943" t="n">
-        <v>0.4651</v>
+        <v>0.4654</v>
       </c>
     </row>
     <row r="1944">
@@ -33841,7 +33841,7 @@
         <v>13</v>
       </c>
       <c r="E1953" t="n">
-        <v>0.0226</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="1954">
@@ -33977,7 +33977,7 @@
         <v>13</v>
       </c>
       <c r="E1961" t="n">
-        <v>0.0693</v>
+        <v>0.0691</v>
       </c>
     </row>
     <row r="1962">
@@ -34062,7 +34062,7 @@
         <v>13</v>
       </c>
       <c r="E1966" t="n">
-        <v>0.2682</v>
+        <v>0.2681</v>
       </c>
     </row>
     <row r="1967">
@@ -34079,7 +34079,7 @@
         <v>13</v>
       </c>
       <c r="E1967" t="n">
-        <v>0.3174</v>
+        <v>0.3177</v>
       </c>
     </row>
     <row r="1968">
@@ -34130,7 +34130,7 @@
         <v>13</v>
       </c>
       <c r="E1970" t="n">
-        <v>0.1792</v>
+        <v>0.1793</v>
       </c>
     </row>
     <row r="1971">
@@ -34147,7 +34147,7 @@
         <v>13</v>
       </c>
       <c r="E1971" t="n">
-        <v>0.2065</v>
+        <v>0.2062</v>
       </c>
     </row>
     <row r="1972">
@@ -34215,7 +34215,7 @@
         <v>14</v>
       </c>
       <c r="E1975" t="n">
-        <v>0.5873</v>
+        <v>0.5876</v>
       </c>
     </row>
     <row r="1976">
@@ -34368,7 +34368,7 @@
         <v>13</v>
       </c>
       <c r="E1984" t="n">
-        <v>0.3425</v>
+        <v>0.3423</v>
       </c>
     </row>
     <row r="1985">
@@ -34385,7 +34385,7 @@
         <v>13</v>
       </c>
       <c r="E1985" t="n">
-        <v>0.3283</v>
+        <v>0.3285</v>
       </c>
     </row>
     <row r="1986">
@@ -34538,7 +34538,7 @@
         <v>13</v>
       </c>
       <c r="E1994" t="n">
-        <v>0.0465</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="1995">
@@ -34555,7 +34555,7 @@
         <v>13</v>
       </c>
       <c r="E1995" t="n">
-        <v>0.0141</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="1996">
@@ -34674,7 +34674,7 @@
         <v>13</v>
       </c>
       <c r="E2002" t="n">
-        <v>0.0819</v>
+        <v>0.0822</v>
       </c>
     </row>
     <row r="2003">
@@ -34776,7 +34776,7 @@
         <v>13</v>
       </c>
       <c r="E2008" t="n">
-        <v>0.2167</v>
+        <v>0.2172</v>
       </c>
     </row>
     <row r="2009">
@@ -34793,7 +34793,7 @@
         <v>13</v>
       </c>
       <c r="E2009" t="n">
-        <v>0.2371</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="2010">
@@ -34844,7 +34844,7 @@
         <v>13</v>
       </c>
       <c r="E2012" t="n">
-        <v>0.1662</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="2013">
@@ -34861,7 +34861,7 @@
         <v>13</v>
       </c>
       <c r="E2013" t="n">
-        <v>0.2091</v>
+        <v>0.2093</v>
       </c>
     </row>
     <row r="2014">
@@ -34912,7 +34912,7 @@
         <v>14</v>
       </c>
       <c r="E2016" t="n">
-        <v>0.5787</v>
+        <v>0.5788</v>
       </c>
     </row>
     <row r="2017">
@@ -34929,7 +34929,7 @@
         <v>14</v>
       </c>
       <c r="E2017" t="n">
-        <v>0.5407</v>
+        <v>0.5409</v>
       </c>
     </row>
     <row r="2018">
@@ -35082,7 +35082,7 @@
         <v>13</v>
       </c>
       <c r="E2026" t="n">
-        <v>0.245</v>
+        <v>0.2452</v>
       </c>
     </row>
     <row r="2027">
@@ -35099,7 +35099,7 @@
         <v>13</v>
       </c>
       <c r="E2027" t="n">
-        <v>0.3381</v>
+        <v>0.3384</v>
       </c>
     </row>
     <row r="2028">
@@ -35252,7 +35252,7 @@
         <v>13</v>
       </c>
       <c r="E2036" t="n">
-        <v>0.0271</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="2037">
@@ -35269,7 +35269,7 @@
         <v>13</v>
       </c>
       <c r="E2037" t="n">
-        <v>0.0125</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="2038">
@@ -35405,7 +35405,7 @@
         <v>13</v>
       </c>
       <c r="E2045" t="n">
-        <v>0.0937</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="2046">
@@ -35507,7 +35507,7 @@
         <v>13</v>
       </c>
       <c r="E2051" t="n">
-        <v>0.1794</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="2052">
@@ -35558,7 +35558,7 @@
         <v>13</v>
       </c>
       <c r="E2054" t="n">
-        <v>0.1784</v>
+        <v>0.1783</v>
       </c>
     </row>
     <row r="2055">
@@ -35575,7 +35575,7 @@
         <v>13</v>
       </c>
       <c r="E2055" t="n">
-        <v>0.183</v>
+        <v>0.1833</v>
       </c>
     </row>
     <row r="2056">
@@ -35626,7 +35626,7 @@
         <v>14</v>
       </c>
       <c r="E2058" t="n">
-        <v>0.5315</v>
+        <v>0.5317</v>
       </c>
     </row>
     <row r="2059">
@@ -35643,7 +35643,7 @@
         <v>14</v>
       </c>
       <c r="E2059" t="n">
-        <v>0.5054</v>
+        <v>0.5052</v>
       </c>
     </row>
     <row r="2060">
@@ -35796,7 +35796,7 @@
         <v>13</v>
       </c>
       <c r="E2068" t="n">
-        <v>0.2423</v>
+        <v>0.2419</v>
       </c>
     </row>
     <row r="2069">
@@ -35813,7 +35813,7 @@
         <v>13</v>
       </c>
       <c r="E2069" t="n">
-        <v>0.4189</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="2070">
@@ -35966,7 +35966,7 @@
         <v>13</v>
       </c>
       <c r="E2078" t="n">
-        <v>0.0804</v>
+        <v>0.0808</v>
       </c>
     </row>
     <row r="2079">
@@ -35983,7 +35983,7 @@
         <v>13</v>
       </c>
       <c r="E2079" t="n">
-        <v>0.0127</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="2080">
@@ -36102,7 +36102,7 @@
         <v>13</v>
       </c>
       <c r="E2086" t="n">
-        <v>0.088</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="2087">
@@ -36119,7 +36119,7 @@
         <v>13</v>
       </c>
       <c r="E2087" t="n">
-        <v>0.0524</v>
+        <v>0.0523</v>
       </c>
     </row>
     <row r="2088">
@@ -36204,7 +36204,7 @@
         <v>13</v>
       </c>
       <c r="E2092" t="n">
-        <v>0.3048</v>
+        <v>0.3044</v>
       </c>
     </row>
     <row r="2093">
@@ -36272,7 +36272,7 @@
         <v>13</v>
       </c>
       <c r="E2096" t="n">
-        <v>0.2704</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="2097">
@@ -36340,7 +36340,7 @@
         <v>14</v>
       </c>
       <c r="E2100" t="n">
-        <v>0.6171</v>
+        <v>0.6167</v>
       </c>
     </row>
     <row r="2101">
@@ -36357,7 +36357,7 @@
         <v>14</v>
       </c>
       <c r="E2101" t="n">
-        <v>0.5554</v>
+        <v>0.5555</v>
       </c>
     </row>
     <row r="2102">
@@ -36527,7 +36527,7 @@
         <v>13</v>
       </c>
       <c r="E2111" t="n">
-        <v>0.4203</v>
+        <v>0.4206</v>
       </c>
     </row>
     <row r="2112">
@@ -36680,7 +36680,7 @@
         <v>13</v>
       </c>
       <c r="E2120" t="n">
-        <v>0.0462</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="2121">
@@ -36697,7 +36697,7 @@
         <v>13</v>
       </c>
       <c r="E2121" t="n">
-        <v>0.0063</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="2122">
@@ -36816,7 +36816,7 @@
         <v>13</v>
       </c>
       <c r="E2128" t="n">
-        <v>0.0761</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="2129">
@@ -36833,7 +36833,7 @@
         <v>13</v>
       </c>
       <c r="E2129" t="n">
-        <v>0.0662</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="2130">
@@ -36918,7 +36918,7 @@
         <v>13</v>
       </c>
       <c r="E2134" t="n">
-        <v>0.2222</v>
+        <v>0.2223</v>
       </c>
     </row>
     <row r="2135">
@@ -36935,7 +36935,7 @@
         <v>13</v>
       </c>
       <c r="E2135" t="n">
-        <v>0.22</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="2136">
@@ -36986,7 +36986,7 @@
         <v>13</v>
       </c>
       <c r="E2138" t="n">
-        <v>0.2409</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="2139">
@@ -37003,7 +37003,7 @@
         <v>13</v>
       </c>
       <c r="E2139" t="n">
-        <v>0.2068</v>
+        <v>0.2071</v>
       </c>
     </row>
     <row r="2140">
@@ -37054,7 +37054,7 @@
         <v>14</v>
       </c>
       <c r="E2142" t="n">
-        <v>0.5485</v>
+        <v>0.5486</v>
       </c>
     </row>
     <row r="2143">
@@ -37071,7 +37071,7 @@
         <v>14</v>
       </c>
       <c r="E2143" t="n">
-        <v>0.578</v>
+        <v>0.5785</v>
       </c>
     </row>
     <row r="2144">
@@ -37224,7 +37224,7 @@
         <v>13</v>
       </c>
       <c r="E2152" t="n">
-        <v>0.2707</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="2153">
@@ -37241,7 +37241,7 @@
         <v>13</v>
       </c>
       <c r="E2153" t="n">
-        <v>0.3559</v>
+        <v>0.3562</v>
       </c>
     </row>
     <row r="2154">
@@ -37394,7 +37394,7 @@
         <v>13</v>
       </c>
       <c r="E2162" t="n">
-        <v>0.0427</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="2163">
@@ -37411,7 +37411,7 @@
         <v>13</v>
       </c>
       <c r="E2163" t="n">
-        <v>0.0079</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="2164">
@@ -37530,7 +37530,7 @@
         <v>13</v>
       </c>
       <c r="E2170" t="n">
-        <v>0.0896</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="2171">
@@ -37632,7 +37632,7 @@
         <v>13</v>
       </c>
       <c r="E2176" t="n">
-        <v>0.2887</v>
+        <v>0.2888</v>
       </c>
     </row>
     <row r="2177">
@@ -37700,7 +37700,7 @@
         <v>13</v>
       </c>
       <c r="E2180" t="n">
-        <v>0.1837</v>
+        <v>0.1838</v>
       </c>
     </row>
     <row r="2181">
@@ -37717,7 +37717,7 @@
         <v>13</v>
       </c>
       <c r="E2181" t="n">
-        <v>0.1945</v>
+        <v>0.1942</v>
       </c>
     </row>
     <row r="2182">
@@ -37768,7 +37768,7 @@
         <v>14</v>
       </c>
       <c r="E2184" t="n">
-        <v>0.6251</v>
+        <v>0.6248</v>
       </c>
     </row>
     <row r="2185">
@@ -37785,7 +37785,7 @@
         <v>14</v>
       </c>
       <c r="E2185" t="n">
-        <v>0.5423</v>
+        <v>0.5419</v>
       </c>
     </row>
     <row r="2186">
@@ -37938,7 +37938,7 @@
         <v>13</v>
       </c>
       <c r="E2194" t="n">
-        <v>0.3586</v>
+        <v>0.3583</v>
       </c>
     </row>
     <row r="2195">
@@ -37955,7 +37955,7 @@
         <v>13</v>
       </c>
       <c r="E2195" t="n">
-        <v>0.4818</v>
+        <v>0.4819</v>
       </c>
     </row>
     <row r="2196">
@@ -38108,7 +38108,7 @@
         <v>13</v>
       </c>
       <c r="E2204" t="n">
-        <v>0.0434</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="2205">
@@ -38125,7 +38125,7 @@
         <v>13</v>
       </c>
       <c r="E2205" t="n">
-        <v>0.0306</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="2206">
@@ -38244,7 +38244,7 @@
         <v>13</v>
       </c>
       <c r="E2212" t="n">
-        <v>0.0897</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="2213">
@@ -38261,7 +38261,7 @@
         <v>13</v>
       </c>
       <c r="E2213" t="n">
-        <v>0.0882</v>
+        <v>0.088</v>
       </c>
     </row>
     <row r="2214">
@@ -38346,7 +38346,7 @@
         <v>13</v>
       </c>
       <c r="E2218" t="n">
-        <v>0.2312</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="2219">
@@ -38363,7 +38363,7 @@
         <v>13</v>
       </c>
       <c r="E2219" t="n">
-        <v>0.2356</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="2220">
@@ -38414,7 +38414,7 @@
         <v>13</v>
       </c>
       <c r="E2222" t="n">
-        <v>0.2463</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="2223">
@@ -38431,7 +38431,7 @@
         <v>13</v>
       </c>
       <c r="E2223" t="n">
-        <v>0.2266</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="2224">
@@ -38482,7 +38482,7 @@
         <v>14</v>
       </c>
       <c r="E2226" t="n">
-        <v>0.5838</v>
+        <v>0.5835</v>
       </c>
     </row>
     <row r="2227">
@@ -38499,7 +38499,7 @@
         <v>14</v>
       </c>
       <c r="E2227" t="n">
-        <v>0.5469</v>
+        <v>0.5465</v>
       </c>
     </row>
     <row r="2228">
@@ -38652,7 +38652,7 @@
         <v>13</v>
       </c>
       <c r="E2236" t="n">
-        <v>0.3064</v>
+        <v>0.3061</v>
       </c>
     </row>
     <row r="2237">
@@ -38669,7 +38669,7 @@
         <v>13</v>
       </c>
       <c r="E2237" t="n">
-        <v>0.36</v>
+        <v>0.3601</v>
       </c>
     </row>
     <row r="2238">
@@ -38839,7 +38839,7 @@
         <v>13</v>
       </c>
       <c r="E2247" t="n">
-        <v>0.0147</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="2248">
@@ -38958,7 +38958,7 @@
         <v>13</v>
       </c>
       <c r="E2254" t="n">
-        <v>0.0787</v>
+        <v>0.0788</v>
       </c>
     </row>
     <row r="2255">
@@ -38975,7 +38975,7 @@
         <v>13</v>
       </c>
       <c r="E2255" t="n">
-        <v>0.0981</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="2256">
@@ -39060,7 +39060,7 @@
         <v>13</v>
       </c>
       <c r="E2260" t="n">
-        <v>0.1932</v>
+        <v>0.1933</v>
       </c>
     </row>
     <row r="2261">
@@ -39077,7 +39077,7 @@
         <v>13</v>
       </c>
       <c r="E2261" t="n">
-        <v>0.2108</v>
+        <v>0.2109</v>
       </c>
     </row>
     <row r="2262">
@@ -39145,7 +39145,7 @@
         <v>13</v>
       </c>
       <c r="E2265" t="n">
-        <v>0.1977</v>
+        <v>0.1976</v>
       </c>
     </row>
     <row r="2266">
@@ -39196,7 +39196,7 @@
         <v>14</v>
       </c>
       <c r="E2268" t="n">
-        <v>0.5138</v>
+        <v>0.5141</v>
       </c>
     </row>
     <row r="2269">
@@ -39366,7 +39366,7 @@
         <v>13</v>
       </c>
       <c r="E2278" t="n">
-        <v>0.3545</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="2279">
@@ -39383,7 +39383,7 @@
         <v>13</v>
       </c>
       <c r="E2279" t="n">
-        <v>0.3216</v>
+        <v>0.3215</v>
       </c>
     </row>
     <row r="2280">
@@ -39536,7 +39536,7 @@
         <v>13</v>
       </c>
       <c r="E2288" t="n">
-        <v>0.0477</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="2289">
@@ -39553,7 +39553,7 @@
         <v>13</v>
       </c>
       <c r="E2289" t="n">
-        <v>0.0237</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="2290">
@@ -39672,7 +39672,7 @@
         <v>13</v>
       </c>
       <c r="E2296" t="n">
-        <v>0.098</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="2297">
@@ -39689,7 +39689,7 @@
         <v>13</v>
       </c>
       <c r="E2297" t="n">
-        <v>0.1127</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="2298">
@@ -39774,7 +39774,7 @@
         <v>13</v>
       </c>
       <c r="E2302" t="n">
-        <v>0.1973</v>
+        <v>0.1972</v>
       </c>
     </row>
     <row r="2303">
@@ -39791,7 +39791,7 @@
         <v>13</v>
       </c>
       <c r="E2303" t="n">
-        <v>0.3103</v>
+        <v>0.3102</v>
       </c>
     </row>
     <row r="2304">
@@ -39842,7 +39842,7 @@
         <v>13</v>
       </c>
       <c r="E2306" t="n">
-        <v>0.1822</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="2307">
@@ -39910,7 +39910,7 @@
         <v>14</v>
       </c>
       <c r="E2310" t="n">
-        <v>0.6129</v>
+        <v>0.6125</v>
       </c>
     </row>
     <row r="2311">
@@ -40080,7 +40080,7 @@
         <v>13</v>
       </c>
       <c r="E2320" t="n">
-        <v>0.463</v>
+        <v>0.4631</v>
       </c>
     </row>
     <row r="2321">
@@ -40097,7 +40097,7 @@
         <v>13</v>
       </c>
       <c r="E2321" t="n">
-        <v>0.3503</v>
+        <v>0.3505</v>
       </c>
     </row>
     <row r="2322">
@@ -40250,7 +40250,7 @@
         <v>13</v>
       </c>
       <c r="E2330" t="n">
-        <v>0.0688</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="2331">
@@ -40386,7 +40386,7 @@
         <v>13</v>
       </c>
       <c r="E2338" t="n">
-        <v>0.0812</v>
+        <v>0.0811</v>
       </c>
     </row>
     <row r="2339">
@@ -40505,7 +40505,7 @@
         <v>13</v>
       </c>
       <c r="E2345" t="n">
-        <v>0.198</v>
+        <v>0.1979</v>
       </c>
     </row>
     <row r="2346">
@@ -40556,7 +40556,7 @@
         <v>13</v>
       </c>
       <c r="E2348" t="n">
-        <v>0.2263</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="2349">
@@ -40573,7 +40573,7 @@
         <v>13</v>
       </c>
       <c r="E2349" t="n">
-        <v>0.1879</v>
+        <v>0.1878</v>
       </c>
     </row>
     <row r="2350">
@@ -40624,7 +40624,7 @@
         <v>14</v>
       </c>
       <c r="E2352" t="n">
-        <v>0.5133</v>
+        <v>0.5131</v>
       </c>
     </row>
     <row r="2353">
@@ -40641,7 +40641,7 @@
         <v>14</v>
       </c>
       <c r="E2353" t="n">
-        <v>0.5373</v>
+        <v>0.5374</v>
       </c>
     </row>
     <row r="2354">
@@ -40794,7 +40794,7 @@
         <v>13</v>
       </c>
       <c r="E2362" t="n">
-        <v>0.3669</v>
+        <v>0.3665</v>
       </c>
     </row>
     <row r="2363">
@@ -40811,7 +40811,7 @@
         <v>13</v>
       </c>
       <c r="E2363" t="n">
-        <v>0.3914</v>
+        <v>0.3912</v>
       </c>
     </row>
     <row r="2364">
@@ -40964,7 +40964,7 @@
         <v>13</v>
       </c>
       <c r="E2372" t="n">
-        <v>0.0383</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="2373">
@@ -40981,7 +40981,7 @@
         <v>13</v>
       </c>
       <c r="E2373" t="n">
-        <v>0.0106</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="2374">
@@ -41100,7 +41100,7 @@
         <v>13</v>
       </c>
       <c r="E2380" t="n">
-        <v>0.078</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="2381">
@@ -41117,7 +41117,7 @@
         <v>13</v>
       </c>
       <c r="E2381" t="n">
-        <v>0.0593</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="2382">
@@ -41202,7 +41202,7 @@
         <v>13</v>
       </c>
       <c r="E2386" t="n">
-        <v>0.1945</v>
+        <v>0.1949</v>
       </c>
     </row>
     <row r="2387">
@@ -41219,7 +41219,7 @@
         <v>13</v>
       </c>
       <c r="E2387" t="n">
-        <v>0.196</v>
+        <v>0.1961</v>
       </c>
     </row>
     <row r="2388">
@@ -41270,7 +41270,7 @@
         <v>13</v>
       </c>
       <c r="E2390" t="n">
-        <v>0.1979</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="2391">
@@ -41287,7 +41287,7 @@
         <v>13</v>
       </c>
       <c r="E2391" t="n">
-        <v>0.1812</v>
+        <v>0.1814</v>
       </c>
     </row>
     <row r="2392">
@@ -41338,7 +41338,7 @@
         <v>14</v>
       </c>
       <c r="E2394" t="n">
-        <v>0.6143</v>
+        <v>0.6148</v>
       </c>
     </row>
     <row r="2395">
@@ -41525,7 +41525,7 @@
         <v>13</v>
       </c>
       <c r="E2405" t="n">
-        <v>0.3726</v>
+        <v>0.3729</v>
       </c>
     </row>
     <row r="2406">
@@ -41695,7 +41695,7 @@
         <v>13</v>
       </c>
       <c r="E2415" t="n">
-        <v>0.0105</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="2416">
@@ -41831,7 +41831,7 @@
         <v>13</v>
       </c>
       <c r="E2423" t="n">
-        <v>0.0543</v>
+        <v>0.0541</v>
       </c>
     </row>
     <row r="2424">
@@ -41933,7 +41933,7 @@
         <v>13</v>
       </c>
       <c r="E2429" t="n">
-        <v>0.2188</v>
+        <v>0.2191</v>
       </c>
     </row>
     <row r="2430">
@@ -42001,7 +42001,7 @@
         <v>13</v>
       </c>
       <c r="E2433" t="n">
-        <v>0.2068</v>
+        <v>0.2071</v>
       </c>
     </row>
     <row r="2434">
@@ -42052,7 +42052,7 @@
         <v>14</v>
       </c>
       <c r="E2436" t="n">
-        <v>0.5843</v>
+        <v>0.5844</v>
       </c>
     </row>
     <row r="2437">
@@ -42069,7 +42069,7 @@
         <v>14</v>
       </c>
       <c r="E2437" t="n">
-        <v>0.5268</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="2438">
@@ -42392,7 +42392,7 @@
         <v>13</v>
       </c>
       <c r="E2456" t="n">
-        <v>0.0457</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="2457">
@@ -42630,7 +42630,7 @@
         <v>13</v>
       </c>
       <c r="E2470" t="n">
-        <v>0.192</v>
+        <v>0.1922</v>
       </c>
     </row>
     <row r="2471">
@@ -42647,7 +42647,7 @@
         <v>13</v>
       </c>
       <c r="E2471" t="n">
-        <v>0.1972</v>
+        <v>0.1973</v>
       </c>
     </row>
     <row r="2472">
@@ -42715,7 +42715,7 @@
         <v>13</v>
       </c>
       <c r="E2475" t="n">
-        <v>0.1748</v>
+        <v>0.1749</v>
       </c>
     </row>
     <row r="2476">
@@ -42766,7 +42766,7 @@
         <v>14</v>
       </c>
       <c r="E2478" t="n">
-        <v>0.5809</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="2479">
@@ -42783,7 +42783,7 @@
         <v>14</v>
       </c>
       <c r="E2479" t="n">
-        <v>0.6102</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="2480">
@@ -42936,7 +42936,7 @@
         <v>13</v>
       </c>
       <c r="E2488" t="n">
-        <v>0.3336</v>
+        <v>0.3332</v>
       </c>
     </row>
     <row r="2489">
@@ -42953,7 +42953,7 @@
         <v>13</v>
       </c>
       <c r="E2489" t="n">
-        <v>0.2742</v>
+        <v>0.2737</v>
       </c>
     </row>
     <row r="2490">
@@ -43106,7 +43106,7 @@
         <v>13</v>
       </c>
       <c r="E2498" t="n">
-        <v>0.0495</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="2499">
@@ -43123,7 +43123,7 @@
         <v>13</v>
       </c>
       <c r="E2499" t="n">
-        <v>0.008</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="2500">
@@ -43242,7 +43242,7 @@
         <v>13</v>
       </c>
       <c r="E2506" t="n">
-        <v>0.0855</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="2507">
@@ -43259,7 +43259,7 @@
         <v>13</v>
       </c>
       <c r="E2507" t="n">
-        <v>0.0592</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="2508">
@@ -43344,7 +43344,7 @@
         <v>13</v>
       </c>
       <c r="E2512" t="n">
-        <v>0.2086</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="2513">
@@ -43361,7 +43361,7 @@
         <v>13</v>
       </c>
       <c r="E2513" t="n">
-        <v>0.2273</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="2514">
@@ -43412,7 +43412,7 @@
         <v>13</v>
       </c>
       <c r="E2516" t="n">
-        <v>0.1872</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="2517">
@@ -43429,7 +43429,7 @@
         <v>13</v>
       </c>
       <c r="E2517" t="n">
-        <v>0.1848</v>
+        <v>0.1843</v>
       </c>
     </row>
     <row r="2518">
@@ -43480,7 +43480,7 @@
         <v>14</v>
       </c>
       <c r="E2520" t="n">
-        <v>0.5349</v>
+        <v>0.5343</v>
       </c>
     </row>
     <row r="2521">
@@ -43497,7 +43497,7 @@
         <v>14</v>
       </c>
       <c r="E2521" t="n">
-        <v>0.5502</v>
+        <v>0.5498</v>
       </c>
     </row>
     <row r="2522">
@@ -43650,7 +43650,7 @@
         <v>13</v>
       </c>
       <c r="E2530" t="n">
-        <v>0.2553</v>
+        <v>0.2552</v>
       </c>
     </row>
     <row r="2531">
@@ -43667,7 +43667,7 @@
         <v>13</v>
       </c>
       <c r="E2531" t="n">
-        <v>0.3024</v>
+        <v>0.3023</v>
       </c>
     </row>
     <row r="2532">
@@ -43820,7 +43820,7 @@
         <v>13</v>
       </c>
       <c r="E2540" t="n">
-        <v>0.0461</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="2541">
@@ -43837,7 +43837,7 @@
         <v>13</v>
       </c>
       <c r="E2541" t="n">
-        <v>0.0118</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="2542">
@@ -43956,7 +43956,7 @@
         <v>13</v>
       </c>
       <c r="E2548" t="n">
-        <v>0.08</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="2549">
@@ -43973,7 +43973,7 @@
         <v>13</v>
       </c>
       <c r="E2549" t="n">
-        <v>0.0656</v>
+        <v>0.0657</v>
       </c>
     </row>
     <row r="2550">
@@ -44126,7 +44126,7 @@
         <v>13</v>
       </c>
       <c r="E2558" t="n">
-        <v>0.2097</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="2559">
@@ -44143,7 +44143,7 @@
         <v>13</v>
       </c>
       <c r="E2559" t="n">
-        <v>0.1552</v>
+        <v>0.1551</v>
       </c>
     </row>
     <row r="2560">
@@ -44194,7 +44194,7 @@
         <v>14</v>
       </c>
       <c r="E2562" t="n">
-        <v>0.5217</v>
+        <v>0.5216</v>
       </c>
     </row>
     <row r="2563">
@@ -44211,7 +44211,7 @@
         <v>14</v>
       </c>
       <c r="E2563" t="n">
-        <v>0.6145</v>
+        <v>0.6143</v>
       </c>
     </row>
     <row r="2564">
@@ -44364,7 +44364,7 @@
         <v>13</v>
       </c>
       <c r="E2572" t="n">
-        <v>0.3692</v>
+        <v>0.3693</v>
       </c>
     </row>
     <row r="2573">
@@ -44381,7 +44381,7 @@
         <v>13</v>
       </c>
       <c r="E2573" t="n">
-        <v>0.2638</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="2574">
@@ -44551,7 +44551,7 @@
         <v>13</v>
       </c>
       <c r="E2583" t="n">
-        <v>0.0059</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="2584">
@@ -44687,7 +44687,7 @@
         <v>13</v>
       </c>
       <c r="E2591" t="n">
-        <v>0.073</v>
+        <v>0.0732</v>
       </c>
     </row>
     <row r="2592">
@@ -44789,7 +44789,7 @@
         <v>13</v>
       </c>
       <c r="E2597" t="n">
-        <v>0.212</v>
+        <v>0.2123</v>
       </c>
     </row>
     <row r="2598">
@@ -44857,7 +44857,7 @@
         <v>13</v>
       </c>
       <c r="E2601" t="n">
-        <v>0.1582</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="2602">
@@ -44908,7 +44908,7 @@
         <v>14</v>
       </c>
       <c r="E2604" t="n">
-        <v>0.5045</v>
+        <v>0.5046</v>
       </c>
     </row>
     <row r="2605">
@@ -44925,7 +44925,7 @@
         <v>14</v>
       </c>
       <c r="E2605" t="n">
-        <v>0.6371</v>
+        <v>0.6374</v>
       </c>
     </row>
     <row r="2606">
@@ -45095,7 +45095,7 @@
         <v>13</v>
       </c>
       <c r="E2615" t="n">
-        <v>0.3522</v>
+        <v>0.3523</v>
       </c>
     </row>
     <row r="2616">
@@ -45265,7 +45265,7 @@
         <v>13</v>
       </c>
       <c r="E2625" t="n">
-        <v>0.0247</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="2626">
@@ -45384,7 +45384,7 @@
         <v>13</v>
       </c>
       <c r="E2632" t="n">
-        <v>0.0519</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="2633">
@@ -45401,7 +45401,7 @@
         <v>13</v>
       </c>
       <c r="E2633" t="n">
-        <v>0.0495</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="2634">
@@ -45503,7 +45503,7 @@
         <v>13</v>
       </c>
       <c r="E2639" t="n">
-        <v>0.1943</v>
+        <v>0.1942</v>
       </c>
     </row>
     <row r="2640">
@@ -45554,7 +45554,7 @@
         <v>13</v>
       </c>
       <c r="E2642" t="n">
-        <v>0.1893</v>
+        <v>0.1892</v>
       </c>
     </row>
     <row r="2643">
@@ -45571,7 +45571,7 @@
         <v>13</v>
       </c>
       <c r="E2643" t="n">
-        <v>0.1835</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="2644">
@@ -45622,7 +45622,7 @@
         <v>14</v>
       </c>
       <c r="E2646" t="n">
-        <v>0.5937</v>
+        <v>0.5936</v>
       </c>
     </row>
     <row r="2647">
@@ -45639,7 +45639,7 @@
         <v>14</v>
       </c>
       <c r="E2647" t="n">
-        <v>0.541</v>
+        <v>0.5413</v>
       </c>
     </row>
     <row r="2648">
@@ -45792,7 +45792,7 @@
         <v>13</v>
       </c>
       <c r="E2656" t="n">
-        <v>0.232</v>
+        <v>0.2319</v>
       </c>
     </row>
     <row r="2657">
@@ -45962,7 +45962,7 @@
         <v>13</v>
       </c>
       <c r="E2666" t="n">
-        <v>0.038</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="2667">
@@ -46098,7 +46098,7 @@
         <v>13</v>
       </c>
       <c r="E2674" t="n">
-        <v>0.0669</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="2675">
@@ -46115,7 +46115,7 @@
         <v>13</v>
       </c>
       <c r="E2675" t="n">
-        <v>0.0625</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="2676">
@@ -46200,7 +46200,7 @@
         <v>13</v>
       </c>
       <c r="E2680" t="n">
-        <v>0.2119</v>
+        <v>0.2117</v>
       </c>
     </row>
     <row r="2681">
@@ -46268,7 +46268,7 @@
         <v>13</v>
       </c>
       <c r="E2684" t="n">
-        <v>0.187</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="2685">
@@ -46336,7 +46336,7 @@
         <v>14</v>
       </c>
       <c r="E2688" t="n">
-        <v>0.8461</v>
+        <v>0.8462</v>
       </c>
     </row>
     <row r="2689">
@@ -46353,7 +46353,7 @@
         <v>14</v>
       </c>
       <c r="E2689" t="n">
-        <v>0.5964</v>
+        <v>0.5963</v>
       </c>
     </row>
     <row r="2690">
@@ -46506,7 +46506,7 @@
         <v>13</v>
       </c>
       <c r="E2698" t="n">
-        <v>0.328</v>
+        <v>0.3281</v>
       </c>
     </row>
     <row r="2699">
@@ -46523,7 +46523,7 @@
         <v>13</v>
       </c>
       <c r="E2699" t="n">
-        <v>0.3464</v>
+        <v>0.3468</v>
       </c>
     </row>
     <row r="2700">
@@ -46676,7 +46676,7 @@
         <v>13</v>
       </c>
       <c r="E2708" t="n">
-        <v>0.0268</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="2709">
@@ -46812,7 +46812,7 @@
         <v>13</v>
       </c>
       <c r="E2716" t="n">
-        <v>0.1038</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="2717">
@@ -46829,7 +46829,7 @@
         <v>13</v>
       </c>
       <c r="E2717" t="n">
-        <v>0.082</v>
+        <v>0.0823</v>
       </c>
     </row>
     <row r="2718">
@@ -46914,7 +46914,7 @@
         <v>13</v>
       </c>
       <c r="E2722" t="n">
-        <v>0.2199</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="2723">
@@ -46931,7 +46931,7 @@
         <v>13</v>
       </c>
       <c r="E2723" t="n">
-        <v>0.2046</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="2724">
@@ -46982,7 +46982,7 @@
         <v>13</v>
       </c>
       <c r="E2726" t="n">
-        <v>0.1964</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="2727">
@@ -46999,7 +46999,7 @@
         <v>13</v>
       </c>
       <c r="E2727" t="n">
-        <v>0.1743</v>
+        <v>0.1747</v>
       </c>
     </row>
     <row r="2728">
@@ -47050,7 +47050,7 @@
         <v>14</v>
       </c>
       <c r="E2730" t="n">
-        <v>0.503</v>
+        <v>0.5034</v>
       </c>
     </row>
     <row r="2731">
@@ -47067,7 +47067,7 @@
         <v>14</v>
       </c>
       <c r="E2731" t="n">
-        <v>0.6671</v>
+        <v>0.6675</v>
       </c>
     </row>
     <row r="2732">
@@ -47237,7 +47237,7 @@
         <v>13</v>
       </c>
       <c r="E2741" t="n">
-        <v>0.3144</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="2742">
@@ -47390,7 +47390,7 @@
         <v>13</v>
       </c>
       <c r="E2750" t="n">
-        <v>0.0593</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="2751">
@@ -47526,7 +47526,7 @@
         <v>13</v>
       </c>
       <c r="E2758" t="n">
-        <v>0.09</v>
+        <v>0.0899</v>
       </c>
     </row>
     <row r="2759">
@@ -47628,7 +47628,7 @@
         <v>13</v>
       </c>
       <c r="E2764" t="n">
-        <v>0.3669</v>
+        <v>0.3668</v>
       </c>
     </row>
     <row r="2765">
@@ -47645,7 +47645,7 @@
         <v>13</v>
       </c>
       <c r="E2765" t="n">
-        <v>0.1685</v>
+        <v>0.1684</v>
       </c>
     </row>
     <row r="2766">
@@ -47696,7 +47696,7 @@
         <v>13</v>
       </c>
       <c r="E2768" t="n">
-        <v>0.2787</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="2769">
@@ -47713,7 +47713,7 @@
         <v>13</v>
       </c>
       <c r="E2769" t="n">
-        <v>0.1633</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="2770">
@@ -47781,7 +47781,7 @@
         <v>14</v>
       </c>
       <c r="E2773" t="n">
-        <v>0.5485</v>
+        <v>0.5481</v>
       </c>
     </row>
     <row r="2774">
@@ -47934,7 +47934,7 @@
         <v>13</v>
       </c>
       <c r="E2782" t="n">
-        <v>0.2722</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="2783">
@@ -47951,7 +47951,7 @@
         <v>13</v>
       </c>
       <c r="E2783" t="n">
-        <v>0.2599</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="2784">
@@ -48240,7 +48240,7 @@
         <v>13</v>
       </c>
       <c r="E2800" t="n">
-        <v>0.0517</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="2801">
@@ -48257,7 +48257,7 @@
         <v>13</v>
       </c>
       <c r="E2801" t="n">
-        <v>0.0624</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="2802">
@@ -48342,7 +48342,7 @@
         <v>13</v>
       </c>
       <c r="E2806" t="n">
-        <v>0.1921</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="2807">
@@ -48410,7 +48410,7 @@
         <v>13</v>
       </c>
       <c r="E2810" t="n">
-        <v>0.1735</v>
+        <v>0.1737</v>
       </c>
     </row>
     <row r="2811">
@@ -48427,7 +48427,7 @@
         <v>13</v>
       </c>
       <c r="E2811" t="n">
-        <v>0.1738</v>
+        <v>0.1737</v>
       </c>
     </row>
     <row r="2812">
@@ -48478,7 +48478,7 @@
         <v>14</v>
       </c>
       <c r="E2814" t="n">
-        <v>0.5761</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="2815">
@@ -48648,7 +48648,7 @@
         <v>13</v>
       </c>
       <c r="E2824" t="n">
-        <v>0.3085</v>
+        <v>0.3086</v>
       </c>
     </row>
     <row r="2825">
@@ -48665,7 +48665,7 @@
         <v>13</v>
       </c>
       <c r="E2825" t="n">
-        <v>0.3074</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="2826">
@@ -48818,7 +48818,7 @@
         <v>13</v>
       </c>
       <c r="E2834" t="n">
-        <v>0.0252</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="2835">
@@ -48835,7 +48835,7 @@
         <v>13</v>
       </c>
       <c r="E2835" t="n">
-        <v>0.0164</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="2836">
@@ -48971,7 +48971,7 @@
         <v>13</v>
       </c>
       <c r="E2843" t="n">
-        <v>0.0553</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="2844">
@@ -49056,7 +49056,7 @@
         <v>13</v>
       </c>
       <c r="E2848" t="n">
-        <v>0.2314</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="2849">
@@ -49073,7 +49073,7 @@
         <v>13</v>
       </c>
       <c r="E2849" t="n">
-        <v>0.1466</v>
+        <v>0.1468</v>
       </c>
     </row>
     <row r="2850">
@@ -49124,7 +49124,7 @@
         <v>13</v>
       </c>
       <c r="E2852" t="n">
-        <v>0.1636</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="2853">
@@ -49141,7 +49141,7 @@
         <v>13</v>
       </c>
       <c r="E2853" t="n">
-        <v>0.1353</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="2854">
@@ -49192,7 +49192,7 @@
         <v>14</v>
       </c>
       <c r="E2856" t="n">
-        <v>0.6486</v>
+        <v>0.6489</v>
       </c>
     </row>
     <row r="2857">
@@ -49209,7 +49209,7 @@
         <v>14</v>
       </c>
       <c r="E2857" t="n">
-        <v>0.5619</v>
+        <v>0.5621</v>
       </c>
     </row>
     <row r="2858">
@@ -49379,7 +49379,7 @@
         <v>13</v>
       </c>
       <c r="E2867" t="n">
-        <v>0.3705</v>
+        <v>0.3703</v>
       </c>
     </row>
     <row r="2868">
@@ -49532,7 +49532,7 @@
         <v>13</v>
       </c>
       <c r="E2876" t="n">
-        <v>0.0142</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="2877">
@@ -49668,7 +49668,7 @@
         <v>13</v>
       </c>
       <c r="E2884" t="n">
-        <v>0.0832</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="2885">
@@ -49685,7 +49685,7 @@
         <v>13</v>
       </c>
       <c r="E2885" t="n">
-        <v>0.115</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="2886">
@@ -49787,7 +49787,7 @@
         <v>13</v>
       </c>
       <c r="E2891" t="n">
-        <v>0.2494</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="2892">
@@ -49838,7 +49838,7 @@
         <v>13</v>
       </c>
       <c r="E2894" t="n">
-        <v>0.1868</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="2895">
@@ -49855,7 +49855,7 @@
         <v>13</v>
       </c>
       <c r="E2895" t="n">
-        <v>0.1978</v>
+        <v>0.1981</v>
       </c>
     </row>
     <row r="2896">
@@ -49906,7 +49906,7 @@
         <v>14</v>
       </c>
       <c r="E2898" t="n">
-        <v>0.5816</v>
+        <v>0.5817</v>
       </c>
     </row>
     <row r="2899">
@@ -49923,7 +49923,7 @@
         <v>14</v>
       </c>
       <c r="E2899" t="n">
-        <v>0.6533</v>
+        <v>0.6535</v>
       </c>
     </row>
     <row r="2900">
@@ -50076,7 +50076,7 @@
         <v>13</v>
       </c>
       <c r="E2908" t="n">
-        <v>0.2941</v>
+        <v>0.2938</v>
       </c>
     </row>
     <row r="2909">
@@ -50093,7 +50093,7 @@
         <v>13</v>
       </c>
       <c r="E2909" t="n">
-        <v>0.2505</v>
+        <v>0.2504</v>
       </c>
     </row>
     <row r="2910">
@@ -50263,7 +50263,7 @@
         <v>13</v>
       </c>
       <c r="E2919" t="n">
-        <v>0.0296</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="2920">
@@ -50382,7 +50382,7 @@
         <v>13</v>
       </c>
       <c r="E2926" t="n">
-        <v>0.0885</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="2927">
@@ -50399,7 +50399,7 @@
         <v>13</v>
       </c>
       <c r="E2927" t="n">
-        <v>0.0703</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="2928">
@@ -50484,7 +50484,7 @@
         <v>13</v>
       </c>
       <c r="E2932" t="n">
-        <v>0.2087</v>
+        <v>0.2089</v>
       </c>
     </row>
     <row r="2933">
@@ -50501,7 +50501,7 @@
         <v>13</v>
       </c>
       <c r="E2933" t="n">
-        <v>0.1839</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="2934">
@@ -50552,7 +50552,7 @@
         <v>13</v>
       </c>
       <c r="E2936" t="n">
-        <v>0.1762</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="2937">
@@ -50569,7 +50569,7 @@
         <v>13</v>
       </c>
       <c r="E2937" t="n">
-        <v>0.2042</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="2938">
@@ -50637,7 +50637,7 @@
         <v>14</v>
       </c>
       <c r="E2941" t="n">
-        <v>0.6087</v>
+        <v>0.6084</v>
       </c>
     </row>
     <row r="2942">
@@ -50790,7 +50790,7 @@
         <v>13</v>
       </c>
       <c r="E2950" t="n">
-        <v>0.4177</v>
+        <v>0.4176</v>
       </c>
     </row>
     <row r="2951">
@@ -50807,7 +50807,7 @@
         <v>13</v>
       </c>
       <c r="E2951" t="n">
-        <v>0.2628</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="2952">
@@ -50960,7 +50960,7 @@
         <v>13</v>
       </c>
       <c r="E2960" t="n">
-        <v>0.0188</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="2961">
@@ -50977,7 +50977,7 @@
         <v>13</v>
       </c>
       <c r="E2961" t="n">
-        <v>0.0064</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="2962">
@@ -51096,7 +51096,7 @@
         <v>13</v>
       </c>
       <c r="E2968" t="n">
-        <v>0.071</v>
+        <v>0.0713</v>
       </c>
     </row>
     <row r="2969">
@@ -51198,7 +51198,7 @@
         <v>13</v>
       </c>
       <c r="E2974" t="n">
-        <v>0.211</v>
+        <v>0.2111</v>
       </c>
     </row>
     <row r="2975">
@@ -51215,7 +51215,7 @@
         <v>13</v>
       </c>
       <c r="E2975" t="n">
-        <v>0.1922</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="2976">
@@ -51283,7 +51283,7 @@
         <v>13</v>
       </c>
       <c r="E2979" t="n">
-        <v>0.1858</v>
+        <v>0.1859</v>
       </c>
     </row>
     <row r="2980">
@@ -51351,7 +51351,7 @@
         <v>14</v>
       </c>
       <c r="E2983" t="n">
-        <v>0.5719</v>
+        <v>0.5718</v>
       </c>
     </row>
     <row r="2984">
@@ -51504,7 +51504,7 @@
         <v>13</v>
       </c>
       <c r="E2992" t="n">
-        <v>0.2557</v>
+        <v>0.2556</v>
       </c>
     </row>
     <row r="2993">
@@ -51521,7 +51521,7 @@
         <v>13</v>
       </c>
       <c r="E2993" t="n">
-        <v>0.3597</v>
+        <v>0.3599</v>
       </c>
     </row>
     <row r="2994">
@@ -51691,7 +51691,7 @@
         <v>13</v>
       </c>
       <c r="E3003" t="n">
-        <v>0.0066</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="3004">
@@ -51827,7 +51827,7 @@
         <v>13</v>
       </c>
       <c r="E3011" t="n">
-        <v>0.0779</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="3012">
@@ -51929,7 +51929,7 @@
         <v>13</v>
       </c>
       <c r="E3017" t="n">
-        <v>0.22</v>
+        <v>0.2197</v>
       </c>
     </row>
     <row r="3018">
@@ -51980,7 +51980,7 @@
         <v>13</v>
       </c>
       <c r="E3020" t="n">
-        <v>0.2022</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="3021">
@@ -51997,7 +51997,7 @@
         <v>13</v>
       </c>
       <c r="E3021" t="n">
-        <v>0.192</v>
+        <v>0.1917</v>
       </c>
     </row>
     <row r="3022">
@@ -52048,7 +52048,7 @@
         <v>14</v>
       </c>
       <c r="E3024" t="n">
-        <v>0.656</v>
+        <v>0.6558</v>
       </c>
     </row>
     <row r="3025">
@@ -52065,7 +52065,7 @@
         <v>14</v>
       </c>
       <c r="E3025" t="n">
-        <v>0.5717</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="3026">
@@ -52218,7 +52218,7 @@
         <v>13</v>
       </c>
       <c r="E3034" t="n">
-        <v>0.3297</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="3035">
@@ -52235,7 +52235,7 @@
         <v>13</v>
       </c>
       <c r="E3035" t="n">
-        <v>0.3676</v>
+        <v>0.3677</v>
       </c>
     </row>
     <row r="3036">
@@ -52388,7 +52388,7 @@
         <v>13</v>
       </c>
       <c r="E3044" t="n">
-        <v>0.0215</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="3045">
@@ -52405,7 +52405,7 @@
         <v>13</v>
       </c>
       <c r="E3045" t="n">
-        <v>0.0097</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="3046">
@@ -52524,7 +52524,7 @@
         <v>13</v>
       </c>
       <c r="E3052" t="n">
-        <v>0.0603</v>
+        <v>0.0605</v>
       </c>
     </row>
     <row r="3053">
@@ -52626,7 +52626,7 @@
         <v>13</v>
       </c>
       <c r="E3058" t="n">
-        <v>0.2097</v>
+        <v>0.2095</v>
       </c>
     </row>
     <row r="3059">
@@ -52643,7 +52643,7 @@
         <v>13</v>
       </c>
       <c r="E3059" t="n">
-        <v>0.2076</v>
+        <v>0.2077</v>
       </c>
     </row>
     <row r="3060">
@@ -52694,7 +52694,7 @@
         <v>13</v>
       </c>
       <c r="E3062" t="n">
-        <v>0.1785</v>
+        <v>0.1784</v>
       </c>
     </row>
     <row r="3063">
@@ -52711,7 +52711,7 @@
         <v>13</v>
       </c>
       <c r="E3063" t="n">
-        <v>0.1764</v>
+        <v>0.1765</v>
       </c>
     </row>
     <row r="3064">
@@ -52762,7 +52762,7 @@
         <v>14</v>
       </c>
       <c r="E3066" t="n">
-        <v>0.5219</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="3067">
@@ -52779,7 +52779,7 @@
         <v>14</v>
       </c>
       <c r="E3067" t="n">
-        <v>0.8031</v>
+        <v>0.8033</v>
       </c>
     </row>
     <row r="3068">
@@ -52932,7 +52932,7 @@
         <v>13</v>
       </c>
       <c r="E3076" t="n">
-        <v>0.3233</v>
+        <v>0.3236</v>
       </c>
     </row>
     <row r="3077">
@@ -53102,7 +53102,7 @@
         <v>13</v>
       </c>
       <c r="E3086" t="n">
-        <v>0.0522</v>
+        <v>0.0523</v>
       </c>
     </row>
     <row r="3087">
@@ -53238,7 +53238,7 @@
         <v>13</v>
       </c>
       <c r="E3094" t="n">
-        <v>0.0656</v>
+        <v>0.0657</v>
       </c>
     </row>
     <row r="3095">
@@ -53255,7 +53255,7 @@
         <v>13</v>
       </c>
       <c r="E3095" t="n">
-        <v>0.063</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="3096">
@@ -53340,7 +53340,7 @@
         <v>13</v>
       </c>
       <c r="E3100" t="n">
-        <v>0.1798</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="3101">
@@ -53425,7 +53425,7 @@
         <v>13</v>
       </c>
       <c r="E3105" t="n">
-        <v>0.1675</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="3106">
@@ -53476,7 +53476,7 @@
         <v>14</v>
       </c>
       <c r="E3108" t="n">
-        <v>0.6001</v>
+        <v>0.5997</v>
       </c>
     </row>
     <row r="3109">
@@ -53493,7 +53493,7 @@
         <v>14</v>
       </c>
       <c r="E3109" t="n">
-        <v>0.5233</v>
+        <v>0.5232</v>
       </c>
     </row>
     <row r="3110">
@@ -53646,7 +53646,7 @@
         <v>13</v>
       </c>
       <c r="E3118" t="n">
-        <v>0.3578</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="3119">
@@ -53663,7 +53663,7 @@
         <v>13</v>
       </c>
       <c r="E3119" t="n">
-        <v>0.442</v>
+        <v>0.4421</v>
       </c>
     </row>
     <row r="3120">
@@ -53816,7 +53816,7 @@
         <v>13</v>
       </c>
       <c r="E3128" t="n">
-        <v>0.0214</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="3129">
@@ -53952,7 +53952,7 @@
         <v>13</v>
       </c>
       <c r="E3136" t="n">
-        <v>0.0798</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3137">
@@ -53969,7 +53969,7 @@
         <v>13</v>
       </c>
       <c r="E3137" t="n">
-        <v>0.0844</v>
+        <v>0.0846</v>
       </c>
     </row>
     <row r="3138">
@@ -54054,7 +54054,7 @@
         <v>13</v>
       </c>
       <c r="E3142" t="n">
-        <v>0.1833</v>
+        <v>0.1831</v>
       </c>
     </row>
     <row r="3143">
@@ -54122,7 +54122,7 @@
         <v>13</v>
       </c>
       <c r="E3146" t="n">
-        <v>0.2111</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="3147">
@@ -54190,7 +54190,7 @@
         <v>14</v>
       </c>
       <c r="E3150" t="n">
-        <v>0.6209</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="3151">
@@ -54207,7 +54207,7 @@
         <v>14</v>
       </c>
       <c r="E3151" t="n">
-        <v>0.5317</v>
+        <v>0.5318</v>
       </c>
     </row>
     <row r="3152">
@@ -54360,7 +54360,7 @@
         <v>13</v>
       </c>
       <c r="E3160" t="n">
-        <v>0.273</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="3161">
@@ -54377,7 +54377,7 @@
         <v>13</v>
       </c>
       <c r="E3161" t="n">
-        <v>0.3406</v>
+        <v>0.3405</v>
       </c>
     </row>
     <row r="3162">
@@ -54530,7 +54530,7 @@
         <v>13</v>
       </c>
       <c r="E3170" t="n">
-        <v>0.0088</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="3171">
@@ -54547,7 +54547,7 @@
         <v>13</v>
       </c>
       <c r="E3171" t="n">
-        <v>0.0168</v>
+        <v>0.0169</v>
       </c>
     </row>
     <row r="3172">
@@ -54666,7 +54666,7 @@
         <v>13</v>
       </c>
       <c r="E3178" t="n">
-        <v>0.0898</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3179">
@@ -54768,7 +54768,7 @@
         <v>13</v>
       </c>
       <c r="E3184" t="n">
-        <v>0.2589</v>
+        <v>0.2588</v>
       </c>
     </row>
     <row r="3185">
@@ -54785,7 +54785,7 @@
         <v>13</v>
       </c>
       <c r="E3185" t="n">
-        <v>0.2833</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="3186">
@@ -54836,7 +54836,7 @@
         <v>13</v>
       </c>
       <c r="E3188" t="n">
-        <v>0.1886</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="3189">
@@ -54853,7 +54853,7 @@
         <v>13</v>
       </c>
       <c r="E3189" t="n">
-        <v>0.1742</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="3190">
@@ -54904,7 +54904,7 @@
         <v>14</v>
       </c>
       <c r="E3192" t="n">
-        <v>0.6726</v>
+        <v>0.6728</v>
       </c>
     </row>
     <row r="3193">
@@ -54921,7 +54921,7 @@
         <v>14</v>
       </c>
       <c r="E3193" t="n">
-        <v>0.5577</v>
+        <v>0.5578</v>
       </c>
     </row>
     <row r="3194">
@@ -55074,7 +55074,7 @@
         <v>13</v>
       </c>
       <c r="E3202" t="n">
-        <v>0.2703</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="3203">
@@ -55244,7 +55244,7 @@
         <v>13</v>
       </c>
       <c r="E3212" t="n">
-        <v>0.0257</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="3213">
@@ -55261,7 +55261,7 @@
         <v>13</v>
       </c>
       <c r="E3213" t="n">
-        <v>0.0065</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="3214">
@@ -55380,7 +55380,7 @@
         <v>13</v>
       </c>
       <c r="E3220" t="n">
-        <v>0.0886</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="3221">
@@ -55397,7 +55397,7 @@
         <v>13</v>
       </c>
       <c r="E3221" t="n">
-        <v>0.062</v>
+        <v>0.0622</v>
       </c>
     </row>
     <row r="3222">
@@ -55482,7 +55482,7 @@
         <v>13</v>
       </c>
       <c r="E3226" t="n">
-        <v>0.2114</v>
+        <v>0.2112</v>
       </c>
     </row>
     <row r="3227">
@@ -55499,7 +55499,7 @@
         <v>13</v>
       </c>
       <c r="E3227" t="n">
-        <v>0.2002</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="3228">
@@ -55550,7 +55550,7 @@
         <v>13</v>
       </c>
       <c r="E3230" t="n">
-        <v>0.1806</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="3231">
@@ -55567,7 +55567,7 @@
         <v>13</v>
       </c>
       <c r="E3231" t="n">
-        <v>0.1759</v>
+        <v>0.1761</v>
       </c>
     </row>
     <row r="3232">
@@ -55618,7 +55618,7 @@
         <v>14</v>
       </c>
       <c r="E3234" t="n">
-        <v>0.5314</v>
+        <v>0.5313</v>
       </c>
     </row>
     <row r="3235">
@@ -55635,7 +55635,7 @@
         <v>14</v>
       </c>
       <c r="E3235" t="n">
-        <v>0.5558</v>
+        <v>0.5556</v>
       </c>
     </row>
     <row r="3236">
@@ -55788,7 +55788,7 @@
         <v>13</v>
       </c>
       <c r="E3244" t="n">
-        <v>0.2924</v>
+        <v>0.2926</v>
       </c>
     </row>
     <row r="3245">
@@ -55805,7 +55805,7 @@
         <v>13</v>
       </c>
       <c r="E3245" t="n">
-        <v>0.3995</v>
+        <v>0.3998</v>
       </c>
     </row>
     <row r="3246">
@@ -55958,7 +55958,7 @@
         <v>13</v>
       </c>
       <c r="E3254" t="n">
-        <v>0.0282</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="3255">
@@ -56094,7 +56094,7 @@
         <v>13</v>
       </c>
       <c r="E3262" t="n">
-        <v>0.0696</v>
+        <v>0.0697</v>
       </c>
     </row>
     <row r="3263">
@@ -56111,7 +56111,7 @@
         <v>13</v>
       </c>
       <c r="E3263" t="n">
-        <v>0.0626</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="3264">
@@ -56196,7 +56196,7 @@
         <v>13</v>
       </c>
       <c r="E3268" t="n">
-        <v>0.2153</v>
+        <v>0.2156</v>
       </c>
     </row>
     <row r="3269">
@@ -56213,7 +56213,7 @@
         <v>13</v>
       </c>
       <c r="E3269" t="n">
-        <v>0.1898</v>
+        <v>0.1896</v>
       </c>
     </row>
     <row r="3270">
@@ -56264,7 +56264,7 @@
         <v>13</v>
       </c>
       <c r="E3272" t="n">
-        <v>0.1498</v>
+        <v>0.1495</v>
       </c>
     </row>
     <row r="3273">
@@ -56281,7 +56281,7 @@
         <v>13</v>
       </c>
       <c r="E3273" t="n">
-        <v>0.1518</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="3274">
@@ -56332,7 +56332,7 @@
         <v>14</v>
       </c>
       <c r="E3276" t="n">
-        <v>0.5464</v>
+        <v>0.5465</v>
       </c>
     </row>
     <row r="3277">
@@ -56349,7 +56349,7 @@
         <v>14</v>
       </c>
       <c r="E3277" t="n">
-        <v>0.507</v>
+        <v>0.5068</v>
       </c>
     </row>
     <row r="3278">
@@ -56502,7 +56502,7 @@
         <v>13</v>
       </c>
       <c r="E3286" t="n">
-        <v>0.3764</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="3287">
@@ -56519,7 +56519,7 @@
         <v>13</v>
       </c>
       <c r="E3287" t="n">
-        <v>0.2737</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="3288">
@@ -56672,7 +56672,7 @@
         <v>13</v>
       </c>
       <c r="E3296" t="n">
-        <v>0.0397</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3297">
@@ -56689,7 +56689,7 @@
         <v>13</v>
       </c>
       <c r="E3297" t="n">
-        <v>0.0169</v>
+        <v>0.0167</v>
       </c>
     </row>
     <row r="3298">
@@ -56808,7 +56808,7 @@
         <v>13</v>
       </c>
       <c r="E3304" t="n">
-        <v>0.0802</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="3305">
@@ -56825,7 +56825,7 @@
         <v>13</v>
       </c>
       <c r="E3305" t="n">
-        <v>0.0549</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="3306">
@@ -56910,7 +56910,7 @@
         <v>13</v>
       </c>
       <c r="E3310" t="n">
-        <v>0.2354</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="3311">
@@ -56927,7 +56927,7 @@
         <v>13</v>
       </c>
       <c r="E3311" t="n">
-        <v>0.1877</v>
+        <v>0.1876</v>
       </c>
     </row>
     <row r="3312">
@@ -56978,7 +56978,7 @@
         <v>13</v>
       </c>
       <c r="E3314" t="n">
-        <v>0.1974</v>
+        <v>0.1977</v>
       </c>
     </row>
     <row r="3315">
@@ -57046,7 +57046,7 @@
         <v>14</v>
       </c>
       <c r="E3318" t="n">
-        <v>0.5298</v>
+        <v>0.5294</v>
       </c>
     </row>
     <row r="3319">
@@ -57522,7 +57522,7 @@
         <v>13</v>
       </c>
       <c r="E3346" t="n">
-        <v>0.0832</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="3347">
@@ -57539,7 +57539,7 @@
         <v>13</v>
       </c>
       <c r="E3347" t="n">
-        <v>0.0573</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="3348">
@@ -57624,7 +57624,7 @@
         <v>13</v>
       </c>
       <c r="E3352" t="n">
-        <v>0.1973</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="3353">
@@ -57641,7 +57641,7 @@
         <v>13</v>
       </c>
       <c r="E3353" t="n">
-        <v>0.1466</v>
+        <v>0.1465</v>
       </c>
     </row>
     <row r="3354">
@@ -57709,7 +57709,7 @@
         <v>13</v>
       </c>
       <c r="E3357" t="n">
-        <v>0.1331</v>
+        <v>0.1332</v>
       </c>
     </row>
     <row r="3358">
@@ -57760,7 +57760,7 @@
         <v>14</v>
       </c>
       <c r="E3360" t="n">
-        <v>0.5222</v>
+        <v>0.5224</v>
       </c>
     </row>
     <row r="3361">
@@ -57930,7 +57930,7 @@
         <v>13</v>
       </c>
       <c r="E3370" t="n">
-        <v>0.3244</v>
+        <v>0.3241</v>
       </c>
     </row>
     <row r="3371">
@@ -57947,7 +57947,7 @@
         <v>13</v>
       </c>
       <c r="E3371" t="n">
-        <v>0.3431</v>
+        <v>0.3427</v>
       </c>
     </row>
     <row r="3372">
@@ -58100,7 +58100,7 @@
         <v>13</v>
       </c>
       <c r="E3380" t="n">
-        <v>0.0118</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="3381">
@@ -58236,7 +58236,7 @@
         <v>13</v>
       </c>
       <c r="E3388" t="n">
-        <v>0.0675</v>
+        <v>0.0676</v>
       </c>
     </row>
     <row r="3389">
@@ -58253,7 +58253,7 @@
         <v>13</v>
       </c>
       <c r="E3389" t="n">
-        <v>0.0589</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="3390">
@@ -58338,7 +58338,7 @@
         <v>13</v>
       </c>
       <c r="E3394" t="n">
-        <v>0.1906</v>
+        <v>0.1903</v>
       </c>
     </row>
     <row r="3395">
@@ -58355,7 +58355,7 @@
         <v>13</v>
       </c>
       <c r="E3395" t="n">
-        <v>0.2357</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="3396">
@@ -58406,7 +58406,7 @@
         <v>13</v>
       </c>
       <c r="E3398" t="n">
-        <v>0.1799</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="3399">
@@ -58423,7 +58423,7 @@
         <v>13</v>
       </c>
       <c r="E3399" t="n">
-        <v>0.1741</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="3400">
@@ -58474,7 +58474,7 @@
         <v>14</v>
       </c>
       <c r="E3402" t="n">
-        <v>0.5003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3403">
@@ -58491,7 +58491,7 @@
         <v>14</v>
       </c>
       <c r="E3403" t="n">
-        <v>0.5456</v>
+        <v>0.5453</v>
       </c>
     </row>
     <row r="3404">
@@ -58644,7 +58644,7 @@
         <v>13</v>
       </c>
       <c r="E3412" t="n">
-        <v>0.2458</v>
+        <v>0.2459</v>
       </c>
     </row>
     <row r="3413">
@@ -58814,7 +58814,7 @@
         <v>13</v>
       </c>
       <c r="E3422" t="n">
-        <v>0.0718</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="3423">
@@ -58831,7 +58831,7 @@
         <v>13</v>
       </c>
       <c r="E3423" t="n">
-        <v>0.0207</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="3424">
@@ -58950,7 +58950,7 @@
         <v>13</v>
       </c>
       <c r="E3430" t="n">
-        <v>0.0835</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="3431">
@@ -58967,7 +58967,7 @@
         <v>13</v>
       </c>
       <c r="E3431" t="n">
-        <v>0.0793</v>
+        <v>0.0794</v>
       </c>
     </row>
     <row r="3432">
@@ -59052,7 +59052,7 @@
         <v>13</v>
       </c>
       <c r="E3436" t="n">
-        <v>0.2597</v>
+        <v>0.2598</v>
       </c>
     </row>
     <row r="3437">
@@ -59120,7 +59120,7 @@
         <v>13</v>
       </c>
       <c r="E3440" t="n">
-        <v>0.2173</v>
+        <v>0.2171</v>
       </c>
     </row>
     <row r="3441">
@@ -59188,7 +59188,7 @@
         <v>14</v>
       </c>
       <c r="E3444" t="n">
-        <v>0.6007</v>
+        <v>0.6009</v>
       </c>
     </row>
     <row r="3445">
@@ -59205,7 +59205,7 @@
         <v>14</v>
       </c>
       <c r="E3445" t="n">
-        <v>0.653</v>
+        <v>0.6532</v>
       </c>
     </row>
     <row r="3446">
@@ -59358,7 +59358,7 @@
         <v>13</v>
       </c>
       <c r="E3454" t="n">
-        <v>0.2494</v>
+        <v>0.2493</v>
       </c>
     </row>
     <row r="3455">
@@ -59545,7 +59545,7 @@
         <v>13</v>
       </c>
       <c r="E3465" t="n">
-        <v>0.0213</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="3466">
@@ -59681,7 +59681,7 @@
         <v>13</v>
       </c>
       <c r="E3473" t="n">
-        <v>0.0541</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="3474">
@@ -59766,7 +59766,7 @@
         <v>13</v>
       </c>
       <c r="E3478" t="n">
-        <v>0.2002</v>
+        <v>0.2003</v>
       </c>
     </row>
     <row r="3479">
@@ -59834,7 +59834,7 @@
         <v>13</v>
       </c>
       <c r="E3482" t="n">
-        <v>0.1985</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="3483">
@@ -59851,7 +59851,7 @@
         <v>13</v>
       </c>
       <c r="E3483" t="n">
-        <v>0.165</v>
+        <v>0.1651</v>
       </c>
     </row>
     <row r="3484">
@@ -59902,7 +59902,7 @@
         <v>14</v>
       </c>
       <c r="E3486" t="n">
-        <v>0.5245</v>
+        <v>0.5246</v>
       </c>
     </row>
     <row r="3487">
@@ -59919,7 +59919,7 @@
         <v>14</v>
       </c>
       <c r="E3487" t="n">
-        <v>0.5384</v>
+        <v>0.5383</v>
       </c>
     </row>
     <row r="3488">
@@ -60072,7 +60072,7 @@
         <v>13</v>
       </c>
       <c r="E3496" t="n">
-        <v>0.3576</v>
+        <v>0.3577</v>
       </c>
     </row>
     <row r="3497">
@@ -60089,7 +60089,7 @@
         <v>13</v>
       </c>
       <c r="E3497" t="n">
-        <v>0.4224</v>
+        <v>0.4226</v>
       </c>
     </row>
     <row r="3498">
@@ -60259,7 +60259,7 @@
         <v>13</v>
       </c>
       <c r="E3507" t="n">
-        <v>0.046</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="3508">
@@ -60378,7 +60378,7 @@
         <v>13</v>
       </c>
       <c r="E3514" t="n">
-        <v>0.0556</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="3515">
@@ -60395,7 +60395,7 @@
         <v>13</v>
       </c>
       <c r="E3515" t="n">
-        <v>0.0657</v>
+        <v>0.0659</v>
       </c>
     </row>
     <row r="3516">
@@ -60480,7 +60480,7 @@
         <v>13</v>
       </c>
       <c r="E3520" t="n">
-        <v>0.2135</v>
+        <v>0.2136</v>
       </c>
     </row>
     <row r="3521">
@@ -60497,7 +60497,7 @@
         <v>13</v>
       </c>
       <c r="E3521" t="n">
-        <v>0.1929</v>
+        <v>0.1931</v>
       </c>
     </row>
     <row r="3522">
@@ -60548,7 +60548,7 @@
         <v>13</v>
       </c>
       <c r="E3524" t="n">
-        <v>0.1959</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="3525">
@@ -60565,7 +60565,7 @@
         <v>13</v>
       </c>
       <c r="E3525" t="n">
-        <v>0.171</v>
+        <v>0.1712</v>
       </c>
     </row>
     <row r="3526">
@@ -60616,7 +60616,7 @@
         <v>14</v>
       </c>
       <c r="E3528" t="n">
-        <v>0.5947</v>
+        <v>0.5948</v>
       </c>
     </row>
     <row r="3529">
@@ -60633,7 +60633,7 @@
         <v>14</v>
       </c>
       <c r="E3529" t="n">
-        <v>0.5748</v>
+        <v>0.5749</v>
       </c>
     </row>
     <row r="3530">
@@ -60786,7 +60786,7 @@
         <v>13</v>
       </c>
       <c r="E3538" t="n">
-        <v>0.2502</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="3539">
@@ -60803,7 +60803,7 @@
         <v>13</v>
       </c>
       <c r="E3539" t="n">
-        <v>0.3097</v>
+        <v>0.3096</v>
       </c>
     </row>
     <row r="3540">
@@ -60956,7 +60956,7 @@
         <v>13</v>
       </c>
       <c r="E3548" t="n">
-        <v>0.0113</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="3549">
@@ -60973,7 +60973,7 @@
         <v>13</v>
       </c>
       <c r="E3549" t="n">
-        <v>0.0162</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="3550">
@@ -61109,7 +61109,7 @@
         <v>13</v>
       </c>
       <c r="E3557" t="n">
-        <v>0.069</v>
+        <v>0.0694</v>
       </c>
     </row>
     <row r="3558">
@@ -61194,7 +61194,7 @@
         <v>13</v>
       </c>
       <c r="E3562" t="n">
-        <v>0.2212</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="3563">
@@ -61211,7 +61211,7 @@
         <v>13</v>
       </c>
       <c r="E3563" t="n">
-        <v>0.1575</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="3564">
@@ -61262,7 +61262,7 @@
         <v>13</v>
       </c>
       <c r="E3566" t="n">
-        <v>0.1594</v>
+        <v>0.1591</v>
       </c>
     </row>
     <row r="3567">
@@ -61279,7 +61279,7 @@
         <v>13</v>
       </c>
       <c r="E3567" t="n">
-        <v>0.1624</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="3568">
@@ -61330,7 +61330,7 @@
         <v>14</v>
       </c>
       <c r="E3570" t="n">
-        <v>0.5682</v>
+        <v>0.568</v>
       </c>
     </row>
     <row r="3571">
@@ -61347,7 +61347,7 @@
         <v>14</v>
       </c>
       <c r="E3571" t="n">
-        <v>0.5114</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="3572">
@@ -61500,7 +61500,7 @@
         <v>13</v>
       </c>
       <c r="E3580" t="n">
-        <v>0.2157</v>
+        <v>0.2154</v>
       </c>
     </row>
     <row r="3581">
@@ -61517,7 +61517,7 @@
         <v>13</v>
       </c>
       <c r="E3581" t="n">
-        <v>0.3084</v>
+        <v>0.3082</v>
       </c>
     </row>
     <row r="3582">
@@ -61670,7 +61670,7 @@
         <v>13</v>
       </c>
       <c r="E3590" t="n">
-        <v>0.0229</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="3591">
@@ -61687,7 +61687,7 @@
         <v>13</v>
       </c>
       <c r="E3591" t="n">
-        <v>0.0272</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="3592">
@@ -61806,7 +61806,7 @@
         <v>13</v>
       </c>
       <c r="E3598" t="n">
-        <v>0.0604</v>
+        <v>0.0605</v>
       </c>
     </row>
     <row r="3599">
@@ -61823,7 +61823,7 @@
         <v>13</v>
       </c>
       <c r="E3599" t="n">
-        <v>0.0679</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="3600">
@@ -61908,7 +61908,7 @@
         <v>13</v>
       </c>
       <c r="E3604" t="n">
-        <v>0.2013</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="3605">
@@ -61925,7 +61925,7 @@
         <v>13</v>
       </c>
       <c r="E3605" t="n">
-        <v>0.1679</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="3606">
@@ -61976,7 +61976,7 @@
         <v>13</v>
       </c>
       <c r="E3608" t="n">
-        <v>0.1966</v>
+        <v>0.1965</v>
       </c>
     </row>
     <row r="3609">
@@ -61993,7 +61993,7 @@
         <v>13</v>
       </c>
       <c r="E3609" t="n">
-        <v>0.1632</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="3610">
@@ -62044,7 +62044,7 @@
         <v>14</v>
       </c>
       <c r="E3612" t="n">
-        <v>0.5803</v>
+        <v>0.5801</v>
       </c>
     </row>
     <row r="3613">
@@ -62061,7 +62061,7 @@
         <v>14</v>
       </c>
       <c r="E3613" t="n">
-        <v>0.5687</v>
+        <v>0.5684</v>
       </c>
     </row>
   </sheetData>
